--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342951.7125289321</v>
+        <v>222098.6454585082</v>
       </c>
     </row>
     <row r="7">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="I11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.78681539902033</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.50120808708941</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>81.28802348610976</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>81.28802348610978</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42701010228137</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.61046744136135</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="T12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>40.62972820115284</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>57.50120808708941</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="G14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="H14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.28802348610989</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.78681539902033</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>81.28802348610988</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42701010228137</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.61046744136135</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="U15" t="n">
-        <v>40.62972820115291</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.63950041187345</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>92.40082497114798</v>
+        <v>81.38664663458722</v>
       </c>
       <c r="U17" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>55.29810397960041</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>47.49554328584184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>81.38664663458707</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.38664663458711</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="G21" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="H21" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.65068379064653</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.59826427738969</v>
+        <v>81.38664663458728</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>23.53852353769889</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>57.52307403836434</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.27022026107805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="C24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2441,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>67.08334875144105</v>
       </c>
       <c r="S24" t="n">
-        <v>81.48526978306461</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.98883196809552</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>81.27022026107797</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>32.53424207026885</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2678,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.08334875144099</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="T27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>92.51279493990077</v>
+        <v>81.48526978306458</v>
       </c>
       <c r="V27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.28138829298245</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="J29" t="n">
-        <v>24.98883196809552</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>81.27022026107797</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>81.4852697830646</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>92.51279493990077</v>
+        <v>81.48526978306461</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3034,25 +3034,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="E32" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>56.28138829298245</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>24.98883196809552</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>81.27022026107797</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>81.48526978306461</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V33" t="n">
-        <v>81.48526978306461</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.27022026107798</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>81.27022026107797</v>
       </c>
       <c r="V35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>81.4852697830646</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="X36" t="n">
-        <v>92.51279493990077</v>
+        <v>81.48526978306458</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="E38" t="n">
-        <v>92.51279493990074</v>
+        <v>81.27022026107797</v>
       </c>
       <c r="F38" t="n">
-        <v>92.51279493990074</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="S38" t="n">
-        <v>81.27022026107805</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>67.08334875144102</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3626,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>92.51279493990074</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>92.51279493990074</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="Y39" t="n">
-        <v>81.48526978306454</v>
+        <v>92.51279493990083</v>
       </c>
     </row>
     <row r="40">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.38664663458719</v>
+        <v>81.38664663458722</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="F41" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="D42" t="n">
-        <v>81.38664663458708</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>15.73596284394065</v>
       </c>
       <c r="X42" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.63950041187345</v>
+        <v>81.38664663458722</v>
       </c>
       <c r="S44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="U44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="E45" t="n">
-        <v>66.98472560296351</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.40082497114798</v>
+        <v>9.136602506075574</v>
       </c>
       <c r="G45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.8252397181619</v>
+        <v>193.825239718162</v>
       </c>
       <c r="C11" t="n">
-        <v>193.8252397181619</v>
+        <v>193.825239718162</v>
       </c>
       <c r="D11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="E11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="F11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="G11" t="n">
-        <v>193.8252397181619</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="H11" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="K11" t="n">
-        <v>20.99810258477137</v>
+        <v>20.9981025847712</v>
       </c>
       <c r="L11" t="n">
-        <v>74.7904686488213</v>
+        <v>74.79046864882113</v>
       </c>
       <c r="M11" t="n">
-        <v>166.1564351011926</v>
+        <v>166.1564351011925</v>
       </c>
       <c r="N11" t="n">
-        <v>257.522401553564</v>
+        <v>257.5224015535639</v>
       </c>
       <c r="O11" t="n">
         <v>336.3655865638286</v>
@@ -5062,31 +5062,31 @@
         <v>369.1554200095812</v>
       </c>
       <c r="Q11" t="n">
-        <v>345.1283337479445</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="R11" t="n">
-        <v>251.9072680889593</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8252397181619</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="T11" t="n">
-        <v>193.8252397181619</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="U11" t="n">
-        <v>193.8252397181619</v>
+        <v>275.9343543505961</v>
       </c>
       <c r="V11" t="n">
-        <v>193.8252397181619</v>
+        <v>193.825239718162</v>
       </c>
       <c r="W11" t="n">
-        <v>193.8252397181619</v>
+        <v>193.825239718162</v>
       </c>
       <c r="X11" t="n">
-        <v>193.8252397181619</v>
+        <v>193.825239718162</v>
       </c>
       <c r="Y11" t="n">
-        <v>193.8252397181619</v>
+        <v>193.825239718162</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="C12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="D12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="E12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="F12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="G12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="H12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I12" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="K12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="L12" t="n">
-        <v>81.64337855833423</v>
+        <v>81.64337855833426</v>
       </c>
       <c r="M12" t="n">
         <v>173.0093450107056</v>
       </c>
       <c r="N12" t="n">
-        <v>264.3753114630769</v>
+        <v>264.375311463077</v>
       </c>
       <c r="O12" t="n">
         <v>315.8452207473479</v>
@@ -5141,31 +5141,31 @@
         <v>369.1554200095812</v>
       </c>
       <c r="Q12" t="n">
-        <v>354.5826825325293</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="R12" t="n">
-        <v>269.1175639048915</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="S12" t="n">
-        <v>175.8964982459064</v>
+        <v>275.9343543505961</v>
       </c>
       <c r="T12" t="n">
-        <v>82.67543258692125</v>
+        <v>275.9343543505961</v>
       </c>
       <c r="U12" t="n">
-        <v>41.63530309080726</v>
+        <v>182.7132886916109</v>
       </c>
       <c r="V12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="W12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="X12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.63530309080726</v>
+        <v>89.49222303262576</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="C13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="D13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="E13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="F13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="G13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="H13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="K13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="L13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="M13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="N13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="O13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="P13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="R13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="S13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="T13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="U13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="V13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="W13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="X13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191625</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="C14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="D14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="E14" t="n">
-        <v>287.0463053771472</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="F14" t="n">
-        <v>193.825239718162</v>
+        <v>275.9343543505964</v>
       </c>
       <c r="G14" t="n">
-        <v>100.6041740591768</v>
+        <v>182.7132886916112</v>
       </c>
       <c r="H14" t="n">
-        <v>7.383108400191625</v>
+        <v>89.49222303262587</v>
       </c>
       <c r="I14" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="J14" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="K14" t="n">
-        <v>20.99810258477132</v>
+        <v>20.99810258477144</v>
       </c>
       <c r="L14" t="n">
-        <v>74.79046864882125</v>
+        <v>74.79046864882143</v>
       </c>
       <c r="M14" t="n">
-        <v>166.1564351011926</v>
+        <v>166.1564351011929</v>
       </c>
       <c r="N14" t="n">
-        <v>257.522401553564</v>
+        <v>257.5224015535644</v>
       </c>
       <c r="O14" t="n">
-        <v>336.3655865638286</v>
+        <v>336.365586563829</v>
       </c>
       <c r="P14" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="Q14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="R14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="S14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="T14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="U14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="V14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="W14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="X14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.1283337479446</v>
+        <v>369.1554200095817</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.63530309080726</v>
+        <v>193.8252397181622</v>
       </c>
       <c r="C15" t="n">
-        <v>41.63530309080726</v>
+        <v>193.8252397181622</v>
       </c>
       <c r="D15" t="n">
-        <v>41.63530309080726</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="E15" t="n">
-        <v>41.63530309080726</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="F15" t="n">
-        <v>41.63530309080726</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="G15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="H15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="I15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="J15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="K15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="L15" t="n">
-        <v>81.64337855833423</v>
+        <v>81.64337855833429</v>
       </c>
       <c r="M15" t="n">
-        <v>173.0093450107056</v>
+        <v>133.9679946165927</v>
       </c>
       <c r="N15" t="n">
-        <v>225.3339610689638</v>
+        <v>225.3339610689642</v>
       </c>
       <c r="O15" t="n">
-        <v>315.845220747348</v>
+        <v>315.8452207473484</v>
       </c>
       <c r="P15" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="Q15" t="n">
-        <v>354.5826825325294</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="R15" t="n">
-        <v>269.1175639048917</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="S15" t="n">
-        <v>175.8964982459065</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="T15" t="n">
-        <v>82.67543258692132</v>
+        <v>275.9343543505964</v>
       </c>
       <c r="U15" t="n">
-        <v>41.63530309080726</v>
+        <v>275.9343543505964</v>
       </c>
       <c r="V15" t="n">
-        <v>41.63530309080726</v>
+        <v>275.9343543505964</v>
       </c>
       <c r="W15" t="n">
-        <v>41.63530309080726</v>
+        <v>275.9343543505964</v>
       </c>
       <c r="X15" t="n">
-        <v>41.63530309080726</v>
+        <v>275.9343543505964</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.63530309080726</v>
+        <v>275.9343543505964</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="C16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="D16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="E16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="F16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="G16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="H16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="I16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="J16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="K16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="L16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="M16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="N16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="O16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="P16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="R16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="S16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="T16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="U16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="V16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="W16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="X16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="C17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="D17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="E17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="F17" t="n">
-        <v>7.392065997691839</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="G17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J17" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K17" t="n">
-        <v>21.05332062426899</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L17" t="n">
-        <v>74.903076857245</v>
+        <v>74.90307685724517</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786817</v>
       </c>
       <c r="N17" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001184</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508447</v>
       </c>
       <c r="P17" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q17" t="n">
-        <v>345.6162834980125</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R17" t="n">
-        <v>252.2821168604893</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="T17" t="n">
-        <v>100.7262326352151</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="U17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="V17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="W17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="X17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.392065997691839</v>
+        <v>194.0603992727385</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.2938369987436</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="C18" t="n">
-        <v>134.9596703612204</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="D18" t="n">
-        <v>41.62550372369714</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="E18" t="n">
-        <v>41.62550372369714</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="F18" t="n">
-        <v>41.62550372369714</v>
+        <v>228.2938369987438</v>
       </c>
       <c r="G18" t="n">
-        <v>41.62550372369714</v>
+        <v>134.9596703612205</v>
       </c>
       <c r="H18" t="n">
         <v>41.62550372369714</v>
@@ -5594,52 +5594,52 @@
         <v>41.62550372369714</v>
       </c>
       <c r="J18" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K18" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="L18" t="n">
-        <v>81.69458512843215</v>
+        <v>81.69458512843218</v>
       </c>
       <c r="M18" t="n">
-        <v>134.2215717271241</v>
+        <v>173.1714018498688</v>
       </c>
       <c r="N18" t="n">
-        <v>225.6983884485606</v>
+        <v>225.698388448561</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569827</v>
       </c>
       <c r="P18" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q18" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R18" t="n">
-        <v>369.6032998845919</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="S18" t="n">
-        <v>369.6032998845919</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="T18" t="n">
-        <v>369.6032998845919</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="U18" t="n">
-        <v>369.6032998845919</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="V18" t="n">
-        <v>369.6032998845919</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="W18" t="n">
-        <v>369.6032998845919</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="X18" t="n">
-        <v>276.2691332470687</v>
+        <v>284.1505076852089</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.2938369987436</v>
+        <v>284.1505076852089</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="C19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="E19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="F19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="G19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="L19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="M19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="N19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="O19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="P19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="R19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="S19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="T19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="U19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="V19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="W19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="X19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095456</v>
       </c>
       <c r="C20" t="n">
-        <v>7.392065997691839</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="D20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="E20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="F20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="G20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="H20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="I20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="J20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05332062426909</v>
+        <v>21.05332062426913</v>
       </c>
       <c r="L20" t="n">
-        <v>74.90307685724508</v>
+        <v>74.9030768572452</v>
       </c>
       <c r="M20" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786819</v>
       </c>
       <c r="N20" t="n">
-        <v>257.8567103001181</v>
+        <v>257.8567103001186</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7611699508443</v>
+        <v>336.7611699508448</v>
       </c>
       <c r="P20" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R20" t="n">
-        <v>287.3945659102615</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="S20" t="n">
-        <v>194.0603992727383</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="T20" t="n">
-        <v>194.0603992727383</v>
+        <v>276.269133247069</v>
       </c>
       <c r="U20" t="n">
-        <v>194.0603992727383</v>
+        <v>276.269133247069</v>
       </c>
       <c r="V20" t="n">
-        <v>100.7262326352151</v>
+        <v>276.269133247069</v>
       </c>
       <c r="W20" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095456</v>
       </c>
       <c r="X20" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095456</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095456</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>260.3742212834924</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="C21" t="n">
-        <v>260.3742212834924</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="D21" t="n">
-        <v>260.3742212834924</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="E21" t="n">
-        <v>260.3742212834924</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="F21" t="n">
-        <v>260.3742212834924</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="G21" t="n">
-        <v>167.0400546459691</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="H21" t="n">
-        <v>73.70588800844591</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="I21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="J21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="K21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="L21" t="n">
-        <v>81.69458512843215</v>
+        <v>81.69458512843219</v>
       </c>
       <c r="M21" t="n">
-        <v>173.1714018498687</v>
+        <v>173.1714018498689</v>
       </c>
       <c r="N21" t="n">
-        <v>264.6482185713052</v>
+        <v>225.6983884485612</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569829</v>
       </c>
       <c r="P21" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="Q21" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="R21" t="n">
-        <v>284.1505076852084</v>
+        <v>287.394565910262</v>
       </c>
       <c r="S21" t="n">
-        <v>284.1505076852084</v>
+        <v>287.394565910262</v>
       </c>
       <c r="T21" t="n">
-        <v>284.1505076852084</v>
+        <v>287.394565910262</v>
       </c>
       <c r="U21" t="n">
-        <v>284.1505076852084</v>
+        <v>287.394565910262</v>
       </c>
       <c r="V21" t="n">
-        <v>260.3742212834924</v>
+        <v>287.394565910262</v>
       </c>
       <c r="W21" t="n">
-        <v>260.3742212834924</v>
+        <v>287.394565910262</v>
       </c>
       <c r="X21" t="n">
-        <v>260.3742212834924</v>
+        <v>287.394565910262</v>
       </c>
       <c r="Y21" t="n">
-        <v>260.3742212834924</v>
+        <v>287.394565910262</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="C22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="D22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="E22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="F22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="G22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="H22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="I22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="J22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="K22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="L22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="M22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="N22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="O22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="P22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="R22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="S22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="T22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="U22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="V22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="W22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="X22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.2955588273148</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C23" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K23" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L23" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M23" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N23" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O23" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P23" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.8339580202227</v>
+        <v>345.8469416336434</v>
       </c>
       <c r="R23" t="n">
-        <v>369.8339580202227</v>
+        <v>252.399674017582</v>
       </c>
       <c r="S23" t="n">
-        <v>369.8339580202227</v>
+        <v>252.399674017582</v>
       </c>
       <c r="T23" t="n">
-        <v>369.8339580202227</v>
+        <v>252.399674017582</v>
       </c>
       <c r="U23" t="n">
-        <v>369.8339580202227</v>
+        <v>158.9524064015205</v>
       </c>
       <c r="V23" t="n">
-        <v>369.8339580202227</v>
+        <v>65.50513878545908</v>
       </c>
       <c r="W23" t="n">
-        <v>369.8339580202227</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X23" t="n">
-        <v>369.8339580202227</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y23" t="n">
-        <v>287.7428264433762</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="C24" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="D24" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="E24" t="n">
         <v>100.8482912112535</v>
       </c>
-      <c r="C24" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.401023595192062</v>
-      </c>
       <c r="F24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K24" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L24" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M24" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N24" t="n">
-        <v>226.1462683235717</v>
+        <v>285.6876606505206</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q24" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781654</v>
       </c>
       <c r="R24" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="S24" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="T24" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="U24" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="V24" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="W24" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="X24" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433764</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y25" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.0895356234712</v>
+        <v>194.295558827315</v>
       </c>
       <c r="C26" t="n">
-        <v>32.64226800740977</v>
+        <v>194.295558827315</v>
       </c>
       <c r="D26" t="n">
-        <v>32.64226800740977</v>
+        <v>194.295558827315</v>
       </c>
       <c r="E26" t="n">
-        <v>32.64226800740977</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F26" t="n">
-        <v>32.64226800740977</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G26" t="n">
-        <v>32.64226800740977</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="H26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I26" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K26" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L26" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M26" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N26" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O26" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P26" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S26" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="T26" t="n">
-        <v>345.8469416336433</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="U26" t="n">
-        <v>345.8469416336433</v>
+        <v>194.295558827315</v>
       </c>
       <c r="V26" t="n">
-        <v>345.8469416336433</v>
+        <v>194.295558827315</v>
       </c>
       <c r="W26" t="n">
-        <v>345.8469416336433</v>
+        <v>194.295558827315</v>
       </c>
       <c r="X26" t="n">
-        <v>312.9840708555939</v>
+        <v>194.295558827315</v>
       </c>
       <c r="Y26" t="n">
-        <v>219.5368032395326</v>
+        <v>194.295558827315</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D27" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K27" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L27" t="n">
-        <v>42.9709343425682</v>
+        <v>102.5123266695169</v>
       </c>
       <c r="M27" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N27" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O27" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P27" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q27" t="n">
-        <v>355.5037847781651</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R27" t="n">
-        <v>355.5037847781651</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S27" t="n">
-        <v>287.7428264433762</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="T27" t="n">
-        <v>194.2955588273148</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="U27" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="V27" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="W27" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="X27" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="Y27" t="n">
         <v>100.8482912112535</v>
-      </c>
-      <c r="V27" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C29" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D29" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E29" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F29" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G29" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="H29" t="n">
-        <v>89.49215517203851</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="I29" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J29" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K29" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L29" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M29" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N29" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O29" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q29" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R29" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="S29" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="T29" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="U29" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="V29" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="W29" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X29" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.3866904041613</v>
+        <v>100.8482912112535</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>183.1566445274803</v>
+        <v>194.295558827315</v>
       </c>
       <c r="C30" t="n">
-        <v>89.70937691141893</v>
+        <v>194.295558827315</v>
       </c>
       <c r="D30" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E30" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F30" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K30" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L30" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M30" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N30" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O30" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="U30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="V30" t="n">
-        <v>276.6039121435417</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="W30" t="n">
-        <v>276.6039121435417</v>
+        <v>194.295558827315</v>
       </c>
       <c r="X30" t="n">
-        <v>276.6039121435417</v>
+        <v>194.295558827315</v>
       </c>
       <c r="Y30" t="n">
-        <v>183.1566445274803</v>
+        <v>194.295558827315</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="C32" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="D32" t="n">
-        <v>369.8339580202227</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E32" t="n">
-        <v>276.3866904041613</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F32" t="n">
-        <v>219.5368032395326</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G32" t="n">
-        <v>126.0895356234712</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="H32" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I32" t="n">
-        <v>32.64226800740977</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J32" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K32" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L32" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M32" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N32" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O32" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="T32" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="U32" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="V32" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="W32" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="X32" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="Y32" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.2955588273148</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C33" t="n">
         <v>100.8482912112535</v>
       </c>
       <c r="D33" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E33" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F33" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G33" t="n">
-        <v>7.401023595192062</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="H33" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I33" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J33" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K33" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L33" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M33" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N33" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T33" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="U33" t="n">
-        <v>370.0511797596031</v>
+        <v>194.295558827315</v>
       </c>
       <c r="V33" t="n">
-        <v>287.7428264433762</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="W33" t="n">
-        <v>287.7428264433762</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X33" t="n">
-        <v>287.7428264433762</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.2955588273148</v>
+        <v>100.8482912112535</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="K35" t="n">
+        <v>21.06227822176935</v>
+      </c>
+      <c r="L35" t="n">
+        <v>74.9120344547454</v>
+      </c>
+      <c r="M35" t="n">
+        <v>166.4997014452472</v>
+      </c>
+      <c r="N35" t="n">
+        <v>258.087368435749</v>
+      </c>
+      <c r="O35" t="n">
+        <v>336.9918280864752</v>
+      </c>
+      <c r="P35" t="n">
+        <v>369.8339580202229</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>369.8339580202229</v>
+      </c>
+      <c r="R35" t="n">
+        <v>276.3866904041614</v>
+      </c>
+      <c r="S35" t="n">
+        <v>182.9394227881</v>
+      </c>
+      <c r="T35" t="n">
+        <v>182.9394227881</v>
+      </c>
+      <c r="U35" t="n">
         <v>100.8482912112535</v>
       </c>
-      <c r="C35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="K35" t="n">
-        <v>21.06227822176931</v>
-      </c>
-      <c r="L35" t="n">
-        <v>74.91203445474531</v>
-      </c>
-      <c r="M35" t="n">
-        <v>166.4997014452471</v>
-      </c>
-      <c r="N35" t="n">
-        <v>258.0873684357488</v>
-      </c>
-      <c r="O35" t="n">
-        <v>336.991828086475</v>
-      </c>
-      <c r="P35" t="n">
-        <v>369.8339580202227</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>369.8339580202227</v>
-      </c>
-      <c r="R35" t="n">
-        <v>369.8339580202227</v>
-      </c>
-      <c r="S35" t="n">
-        <v>369.8339580202227</v>
-      </c>
-      <c r="T35" t="n">
-        <v>369.8339580202227</v>
-      </c>
-      <c r="U35" t="n">
-        <v>369.8339580202227</v>
-      </c>
       <c r="V35" t="n">
-        <v>276.3866904041613</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="W35" t="n">
-        <v>276.3866904041613</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X35" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y35" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K36" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L36" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M36" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N36" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S36" t="n">
-        <v>276.6039121435417</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T36" t="n">
-        <v>183.1566445274803</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="U36" t="n">
-        <v>183.1566445274803</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="V36" t="n">
-        <v>183.1566445274803</v>
+        <v>183.1566445274804</v>
       </c>
       <c r="W36" t="n">
-        <v>183.1566445274803</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="X36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="C38" t="n">
-        <v>194.2955588273148</v>
+        <v>182.9394227881</v>
       </c>
       <c r="D38" t="n">
-        <v>194.2955588273148</v>
+        <v>89.49215517203851</v>
       </c>
       <c r="E38" t="n">
-        <v>100.8482912112534</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J38" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K38" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L38" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M38" t="n">
-        <v>166.499701445247</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N38" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O38" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R38" t="n">
-        <v>276.3866904041613</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="S38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="T38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="U38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="V38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="W38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="X38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.2955588273148</v>
+        <v>276.3866904041614</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.40102359519206</v>
+        <v>75.16198192998098</v>
       </c>
       <c r="C39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J39" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877657</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L39" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M39" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N39" t="n">
-        <v>226.1462683235716</v>
+        <v>279.4936241511816</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7038239319933</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="P39" t="n">
-        <v>370.051179759603</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.051179759603</v>
+        <v>355.5037847781654</v>
       </c>
       <c r="R39" t="n">
-        <v>370.051179759603</v>
+        <v>355.5037847781654</v>
       </c>
       <c r="S39" t="n">
-        <v>370.051179759603</v>
+        <v>262.0565171621039</v>
       </c>
       <c r="T39" t="n">
-        <v>370.051179759603</v>
+        <v>262.0565171621039</v>
       </c>
       <c r="U39" t="n">
-        <v>370.051179759603</v>
+        <v>262.0565171621039</v>
       </c>
       <c r="V39" t="n">
-        <v>276.6039121435416</v>
+        <v>262.0565171621039</v>
       </c>
       <c r="W39" t="n">
-        <v>183.1566445274802</v>
+        <v>262.0565171621039</v>
       </c>
       <c r="X39" t="n">
-        <v>89.70937691141887</v>
+        <v>168.6092495460424</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.40102359519206</v>
+        <v>75.16198192998098</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.40102359519206</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.7262326352151</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="C41" t="n">
-        <v>100.7262326352151</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="D41" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="E41" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="F41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="G41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K41" t="n">
-        <v>21.05332062426909</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L41" t="n">
-        <v>74.90307685724508</v>
+        <v>74.90307685724517</v>
       </c>
       <c r="M41" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786817</v>
       </c>
       <c r="N41" t="n">
-        <v>257.8567103001181</v>
+        <v>257.8567103001184</v>
       </c>
       <c r="O41" t="n">
-        <v>336.7611699508443</v>
+        <v>336.7611699508447</v>
       </c>
       <c r="P41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="S41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="T41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="U41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="V41" t="n">
-        <v>276.2691332470688</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="W41" t="n">
-        <v>182.9349666095456</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="X41" t="n">
-        <v>182.9349666095456</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Y41" t="n">
-        <v>182.9349666095456</v>
+        <v>369.6032998845924</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.60079997202223</v>
+        <v>167.0400546459692</v>
       </c>
       <c r="C42" t="n">
-        <v>89.60079997202223</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="D42" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="E42" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="F42" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="G42" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="H42" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="I42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K42" t="n">
-        <v>28.20084994127635</v>
+        <v>28.20084994127639</v>
       </c>
       <c r="L42" t="n">
         <v>102.5033690720167</v>
       </c>
       <c r="M42" t="n">
-        <v>193.9801857934532</v>
+        <v>193.9801857934534</v>
       </c>
       <c r="N42" t="n">
-        <v>285.4570025148897</v>
+        <v>225.698388448561</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569827</v>
       </c>
       <c r="P42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="S42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="T42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="U42" t="n">
-        <v>276.2691332470687</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="V42" t="n">
-        <v>182.9349666095455</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="W42" t="n">
-        <v>182.9349666095455</v>
+        <v>353.708387921016</v>
       </c>
       <c r="X42" t="n">
-        <v>89.60079997202223</v>
+        <v>260.3742212834926</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.60079997202223</v>
+        <v>260.3742212834926</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="C43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="D43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="E43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="F43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="G43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="L43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="M43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="N43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="P43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Q43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="R43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="S43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="T43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="U43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="V43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="W43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="X43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691848</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="C44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="D44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="E44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="F44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="G44" t="n">
-        <v>7.392065997691839</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="H44" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I44" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J44" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K44" t="n">
-        <v>21.05332062426896</v>
+        <v>21.05332062426908</v>
       </c>
       <c r="L44" t="n">
-        <v>74.90307685724497</v>
+        <v>74.90307685724508</v>
       </c>
       <c r="M44" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786817</v>
       </c>
       <c r="N44" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001184</v>
       </c>
       <c r="O44" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508447</v>
       </c>
       <c r="P44" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q44" t="n">
-        <v>345.6162834980125</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R44" t="n">
-        <v>287.3945659102615</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0603992727383</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="T44" t="n">
-        <v>194.0603992727383</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="U44" t="n">
-        <v>100.7262326352151</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="V44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="W44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="X44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="Y44" t="n">
-        <v>100.7262326352151</v>
+        <v>100.7262326352152</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.0559049031539</v>
+        <v>176.2689460662476</v>
       </c>
       <c r="C45" t="n">
-        <v>355.0559049031539</v>
+        <v>176.2689460662476</v>
       </c>
       <c r="D45" t="n">
-        <v>261.7217382656307</v>
+        <v>82.93477942872426</v>
       </c>
       <c r="E45" t="n">
-        <v>194.0603992727383</v>
+        <v>82.93477942872426</v>
       </c>
       <c r="F45" t="n">
-        <v>100.7262326352151</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="G45" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="H45" t="n">
-        <v>7.392065997691839</v>
+        <v>73.7058880084459</v>
       </c>
       <c r="I45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K45" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127639</v>
       </c>
       <c r="L45" t="n">
-        <v>81.69458512843215</v>
+        <v>102.5033690720167</v>
       </c>
       <c r="M45" t="n">
-        <v>173.1714018498687</v>
+        <v>193.9801857934534</v>
       </c>
       <c r="N45" t="n">
-        <v>264.6482185713052</v>
+        <v>225.698388448561</v>
       </c>
       <c r="O45" t="n">
-        <v>355.2057741797269</v>
+        <v>316.2559440569827</v>
       </c>
       <c r="P45" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.0559049031539</v>
+        <v>355.0559049031544</v>
       </c>
       <c r="R45" t="n">
-        <v>355.0559049031539</v>
+        <v>269.6031127037709</v>
       </c>
       <c r="S45" t="n">
-        <v>355.0559049031539</v>
+        <v>269.6031127037709</v>
       </c>
       <c r="T45" t="n">
-        <v>355.0559049031539</v>
+        <v>269.6031127037709</v>
       </c>
       <c r="U45" t="n">
-        <v>355.0559049031539</v>
+        <v>269.6031127037709</v>
       </c>
       <c r="V45" t="n">
-        <v>355.0559049031539</v>
+        <v>269.6031127037709</v>
       </c>
       <c r="W45" t="n">
-        <v>355.0559049031539</v>
+        <v>176.2689460662476</v>
       </c>
       <c r="X45" t="n">
-        <v>355.0559049031539</v>
+        <v>176.2689460662476</v>
       </c>
       <c r="Y45" t="n">
-        <v>355.0559049031539</v>
+        <v>176.2689460662476</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="C46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="D46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="E46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="F46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="G46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="L46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="M46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="N46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="O46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="P46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="R46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="S46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="T46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="U46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="V46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="W46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="X46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
     </row>
   </sheetData>
@@ -22807,13 +22807,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M5" t="n">
         <v>4.586202945486093</v>
@@ -22822,13 +22822,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R5" t="n">
         <v>134.8218408634681</v>
@@ -22889,7 +22889,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,10 +22904,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R6" t="n">
         <v>102.9682853879423</v>
@@ -22968,16 +22968,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O7" t="n">
         <v>56.93882853040725</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>262.3941866182877</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,10 +23275,10 @@
         <v>413.4644082958837</v>
       </c>
       <c r="H11" t="n">
-        <v>228.359157996714</v>
+        <v>228.3591579967139</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31484734282297</v>
+        <v>139.6037023452182</v>
       </c>
       <c r="J11" t="n">
         <v>25.02000995425203</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.7868153990203</v>
       </c>
       <c r="R11" t="n">
-        <v>7.819734992939232</v>
+        <v>100.1085899953345</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6279344154658</v>
+        <v>167.1291425025552</v>
       </c>
       <c r="T11" t="n">
         <v>215.0485634068586</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1985865702964</v>
+        <v>158.9097315679011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>246.4642349840252</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23354,13 +23354,13 @@
         <v>136.3599243172687</v>
       </c>
       <c r="H12" t="n">
-        <v>102.7360080664787</v>
+        <v>21.44798458036895</v>
       </c>
       <c r="I12" t="n">
         <v>65.65745087436915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.90967274370946</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,22 +23381,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>14.42701010228134</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.61046744136135</v>
       </c>
       <c r="S12" t="n">
-        <v>61.12451038844297</v>
+        <v>61.12451038844296</v>
       </c>
       <c r="T12" t="n">
-        <v>103.9113042826869</v>
+        <v>196.2001592850822</v>
       </c>
       <c r="U12" t="n">
-        <v>185.2469438241679</v>
+        <v>133.5878170229254</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>140.51173214703</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23439,25 +23439,25 @@
         <v>130.652167173172</v>
       </c>
       <c r="J13" t="n">
-        <v>68.69540952780942</v>
+        <v>68.6954095278094</v>
       </c>
       <c r="K13" t="n">
         <v>33.20842954380555</v>
       </c>
       <c r="L13" t="n">
-        <v>12.28748008706457</v>
+        <v>12.28748008706455</v>
       </c>
       <c r="M13" t="n">
         <v>9.664229956157271</v>
       </c>
       <c r="N13" t="n">
-        <v>1.49754131392298</v>
+        <v>1.497541313922952</v>
       </c>
       <c r="O13" t="n">
-        <v>21.90149342145185</v>
+        <v>21.90149342145183</v>
       </c>
       <c r="P13" t="n">
-        <v>37.99502751941262</v>
+        <v>37.9950275194126</v>
       </c>
       <c r="Q13" t="n">
         <v>82.45505824284109</v>
@@ -23503,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>324.4291619851724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>314.5871907393162</v>
+        <v>314.587190739316</v>
       </c>
       <c r="G14" t="n">
-        <v>321.1755532934884</v>
+        <v>321.1755532934883</v>
       </c>
       <c r="H14" t="n">
-        <v>228.3591579967139</v>
+        <v>228.3591579967138</v>
       </c>
       <c r="I14" t="n">
-        <v>139.6037023452183</v>
+        <v>58.31567885910832</v>
       </c>
       <c r="J14" t="n">
-        <v>25.02000995425203</v>
+        <v>25.020009954252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>23.7868153990203</v>
       </c>
       <c r="R14" t="n">
         <v>100.1085899953345</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>85.24516016375746</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>55.15621056224333</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.3599243172687</v>
+        <v>44.07106931487331</v>
       </c>
       <c r="H15" t="n">
         <v>102.7360080664787</v>
@@ -23597,7 +23597,7 @@
         <v>65.65745087436915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.90967274370945</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>14.42701010228133</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.61046744136134</v>
       </c>
       <c r="S15" t="n">
-        <v>61.12451038844296</v>
+        <v>153.4133653908383</v>
       </c>
       <c r="T15" t="n">
-        <v>103.9113042826868</v>
+        <v>103.9113042826867</v>
       </c>
       <c r="U15" t="n">
-        <v>185.2469438241678</v>
+        <v>225.8766720253207</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23676,28 +23676,28 @@
         <v>130.652167173172</v>
       </c>
       <c r="J16" t="n">
-        <v>68.69540952780942</v>
+        <v>68.6954095278094</v>
       </c>
       <c r="K16" t="n">
-        <v>33.20842954380555</v>
+        <v>33.20842954380554</v>
       </c>
       <c r="L16" t="n">
-        <v>12.28748008706457</v>
+        <v>12.28748008706454</v>
       </c>
       <c r="M16" t="n">
-        <v>9.664229956157271</v>
+        <v>9.664229956157243</v>
       </c>
       <c r="N16" t="n">
-        <v>1.49754131392298</v>
+        <v>1.497541313922937</v>
       </c>
       <c r="O16" t="n">
-        <v>21.90149342145185</v>
+        <v>21.90149342145182</v>
       </c>
       <c r="P16" t="n">
-        <v>37.99502751941262</v>
+        <v>37.99502751941259</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.45505824284109</v>
+        <v>82.45505824284108</v>
       </c>
       <c r="R16" t="n">
         <v>140.2158731934601</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>314.4752207705633</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4640409504305</v>
+        <v>321.0632159792824</v>
       </c>
       <c r="H17" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I17" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J17" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R17" t="n">
-        <v>7.684689760363469</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4812712061675</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T17" t="n">
-        <v>122.6461303809893</v>
+        <v>133.6603087175501</v>
       </c>
       <c r="U17" t="n">
-        <v>158.7977322115121</v>
+        <v>158.797732211512</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>80.30767401716776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>89.77110841378347</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3597277701237</v>
+        <v>43.95890279897557</v>
       </c>
       <c r="H18" t="n">
-        <v>102.7341098348409</v>
+        <v>10.33328486369278</v>
       </c>
       <c r="I18" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R18" t="n">
-        <v>84.59826427738969</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>153.4097146138236</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>113.3721602323295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.1871524914625</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23916,31 +23916,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K19" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L19" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M19" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N19" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O19" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P19" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R19" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S19" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T19" t="n">
         <v>224.4215466066255</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>283.8862451364205</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>262.2822166495348</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,10 +23989,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I20" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J20" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R20" t="n">
-        <v>18.69886809692434</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S20" t="n">
-        <v>74.71994664689296</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T20" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809891</v>
       </c>
       <c r="U20" t="n">
         <v>251.1985571826601</v>
       </c>
       <c r="V20" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>256.840143746265</v>
+        <v>256.8401437462649</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>74.13235867871919</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>52.66838742223572</v>
       </c>
       <c r="G21" t="n">
-        <v>43.95890279897569</v>
+        <v>43.95890279897552</v>
       </c>
       <c r="H21" t="n">
-        <v>10.3332848636929</v>
+        <v>102.7341098348409</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J21" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3.211617642802395</v>
       </c>
       <c r="S21" t="n">
         <v>153.4097146138236</v>
@@ -24107,7 +24107,7 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V21" t="n">
-        <v>209.2620636117264</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24153,31 +24153,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K22" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L22" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M22" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N22" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O22" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P22" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R22" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S22" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T22" t="n">
         <v>224.4215466066255</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>262.1702466807822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24226,10 +24226,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I23" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J23" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0855147315115</v>
+        <v>7.572719791610609</v>
       </c>
       <c r="S23" t="n">
         <v>167.1207716180409</v>
@@ -24262,19 +24262,19 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427593</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302341</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>291.7178946790486</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.9677183949755</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.02038870996657</v>
+        <v>74.02038870996651</v>
       </c>
       <c r="C24" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550012</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348305</v>
       </c>
       <c r="G24" t="n">
         <v>136.3597277701237</v>
@@ -24305,10 +24305,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I24" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J24" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>84.59826427738969</v>
+        <v>17.51491552594862</v>
       </c>
       <c r="S24" t="n">
-        <v>71.92444483075897</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T24" t="n">
         <v>196.1993670621597</v>
       </c>
       <c r="U24" t="n">
-        <v>133.3638641546868</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24390,31 +24390,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K25" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L25" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M25" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N25" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O25" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P25" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R25" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S25" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T25" t="n">
         <v>224.4215466066255</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>289.417575132361</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,13 +24460,13 @@
         <v>413.4640409504305</v>
       </c>
       <c r="H26" t="n">
-        <v>320.6442509224869</v>
+        <v>228.1314559825861</v>
       </c>
       <c r="I26" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R26" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S26" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T26" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122365</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1985571826601</v>
+        <v>169.9283369215822</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>337.1968586082002</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>293.7251437161528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550012</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24542,10 +24542,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I27" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J27" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R27" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S27" t="n">
-        <v>86.32636586238259</v>
+        <v>60.89691967392272</v>
       </c>
       <c r="T27" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U27" t="n">
-        <v>133.3638641546868</v>
+        <v>144.3913893115229</v>
       </c>
       <c r="V27" t="n">
-        <v>140.2877922095245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>113.1699008374035</v>
       </c>
     </row>
     <row r="28">
@@ -24627,31 +24627,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K28" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L28" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M28" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N28" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O28" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P28" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R28" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S28" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T28" t="n">
         <v>224.4215466066255</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,13 +24697,13 @@
         <v>413.4640409504305</v>
       </c>
       <c r="H29" t="n">
-        <v>228.1314559825862</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I29" t="n">
-        <v>83.30815196665222</v>
+        <v>47.07674531973382</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R29" t="n">
-        <v>100.0855147315115</v>
+        <v>7.572719791610609</v>
       </c>
       <c r="S29" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T29" t="n">
-        <v>215.0469553521373</v>
+        <v>133.7767350910593</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427593</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>293.7251437161528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>65.95979578157416</v>
+        <v>54.93227062473792</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.3597277701237</v>
+        <v>43.84693283022284</v>
       </c>
       <c r="H30" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I30" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J30" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R30" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S30" t="n">
         <v>153.4097146138236</v>
@@ -24818,16 +24818,16 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V30" t="n">
-        <v>140.2877922095245</v>
+        <v>151.3153173663607</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24864,31 +24864,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K31" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L31" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M31" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N31" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O31" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P31" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R31" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S31" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T31" t="n">
         <v>224.4215466066255</v>
@@ -24922,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>262.1702466807822</v>
       </c>
       <c r="E32" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>350.594657448729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>320.9512460105298</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H32" t="n">
-        <v>228.1314559825862</v>
+        <v>228.1314559825861</v>
       </c>
       <c r="I32" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R32" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S32" t="n">
         <v>167.1207716180409</v>
@@ -24973,7 +24973,7 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427593</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>288.4608804173911</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>54.93227062473798</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25013,13 +25013,13 @@
         <v>136.3597277701237</v>
       </c>
       <c r="H33" t="n">
-        <v>102.7341098348409</v>
+        <v>10.22131489494005</v>
       </c>
       <c r="I33" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J33" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R33" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S33" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1993670621597</v>
+        <v>114.7140972790951</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546867</v>
       </c>
       <c r="V33" t="n">
-        <v>151.3153173663607</v>
+        <v>140.2877922095244</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25101,31 +25101,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K34" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M34" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O34" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P34" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R34" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S34" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T34" t="n">
         <v>224.4215466066255</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.4636214024026</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,10 +25174,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I35" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J35" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R35" t="n">
-        <v>100.0855147315115</v>
+        <v>7.572719791610609</v>
       </c>
       <c r="S35" t="n">
-        <v>167.1207716180409</v>
+        <v>74.60797667814012</v>
       </c>
       <c r="T35" t="n">
         <v>215.0469553521373</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1985571826601</v>
+        <v>169.9283369215822</v>
       </c>
       <c r="V35" t="n">
-        <v>235.2394635302341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>91.22322920525114</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,10 +25253,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I36" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J36" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,28 +25277,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R36" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S36" t="n">
-        <v>60.89691967392281</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T36" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546867</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095244</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X36" t="n">
-        <v>113.2601902635767</v>
+        <v>124.2877154204129</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25338,31 +25338,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K37" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L37" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M37" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N37" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O37" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P37" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R37" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S37" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T37" t="n">
         <v>224.4215466066255</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>272.7600968311067</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>262.1702466807822</v>
       </c>
       <c r="E38" t="n">
-        <v>289.417575132361</v>
+        <v>300.6601498111838</v>
       </c>
       <c r="F38" t="n">
-        <v>314.3632508018107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.4640409504305</v>
@@ -25411,10 +25411,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I38" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J38" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R38" t="n">
-        <v>7.572719791610709</v>
+        <v>7.572719791610609</v>
       </c>
       <c r="S38" t="n">
-        <v>85.8505513569629</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T38" t="n">
         <v>215.0469553521373</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>105.6251502368747</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25490,10 +25490,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I39" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J39" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,13 +25514,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S39" t="n">
-        <v>153.4097146138236</v>
+        <v>60.89691967392272</v>
       </c>
       <c r="T39" t="n">
         <v>196.1993670621597</v>
@@ -25529,16 +25529,16 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V39" t="n">
-        <v>140.2877922095245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>159.1821882210189</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>113.2601902635767</v>
+        <v>113.2601902635766</v>
       </c>
       <c r="Y39" t="n">
-        <v>124.1974259942398</v>
+        <v>113.1699008374035</v>
       </c>
     </row>
     <row r="40">
@@ -25575,31 +25575,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K40" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L40" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M40" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N40" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O40" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P40" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R40" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S40" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T40" t="n">
         <v>224.4215466066255</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.3471950288934</v>
+        <v>301.3471950288933</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>272.8720667998595</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>262.2822166495349</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>289.5295451011137</v>
       </c>
       <c r="F41" t="n">
-        <v>314.4752207705635</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.4640409504305</v>
@@ -25648,10 +25648,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I41" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J41" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R41" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S41" t="n">
         <v>167.1207716180409</v>
@@ -25687,10 +25687,10 @@
         <v>251.1985571826601</v>
       </c>
       <c r="V41" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>256.840143746265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>74.13235867871924</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>80.30767401716764</v>
       </c>
       <c r="D42" t="n">
-        <v>66.05841893005167</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25727,10 +25727,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I42" t="n">
-        <v>65.65068379064653</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R42" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S42" t="n">
         <v>153.4097146138236</v>
@@ -25763,16 +25763,16 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U42" t="n">
-        <v>133.4758341234395</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V42" t="n">
-        <v>140.3997621782773</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>235.959020316979</v>
       </c>
       <c r="X42" t="n">
-        <v>113.3721602323295</v>
+        <v>113.3721602323294</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25812,31 +25812,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K43" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L43" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M43" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N43" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O43" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P43" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R43" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S43" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T43" t="n">
         <v>224.4215466066255</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>321.0632159792825</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H44" t="n">
-        <v>320.6442509224869</v>
+        <v>228.2434259513388</v>
       </c>
       <c r="I44" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J44" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R44" t="n">
-        <v>42.446014319638</v>
+        <v>18.69886809692422</v>
       </c>
       <c r="S44" t="n">
-        <v>74.71994664689296</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809892</v>
       </c>
       <c r="U44" t="n">
-        <v>158.7977322115121</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>235.3514334989868</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04424059349077</v>
+        <v>55.04424059349066</v>
       </c>
       <c r="E45" t="n">
-        <v>90.66035485243744</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>52.6683874222359</v>
+        <v>135.9326098873083</v>
       </c>
       <c r="G45" t="n">
-        <v>43.95890279897569</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H45" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I45" t="n">
-        <v>65.65068379064653</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.59826427738969</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>153.4097146138236</v>
@@ -26006,7 +26006,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897715</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26049,31 +26049,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K46" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L46" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M46" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N46" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O46" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P46" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R46" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S46" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T46" t="n">
         <v>224.4215466066255</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305051</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305051</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484512</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355606.7511484509</v>
+        <v>355606.7511484511</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305051</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355560.087530505</v>
+        <v>355560.0875305051</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>85802.91214547657</v>
       </c>
       <c r="C2" t="n">
-        <v>85802.91214547656</v>
+        <v>85802.91214547657</v>
       </c>
       <c r="D2" t="n">
         <v>85802.91214547656</v>
@@ -26328,7 +26328,7 @@
         <v>123046.9839374685</v>
       </c>
       <c r="G2" t="n">
-        <v>123078.4918374823</v>
+        <v>123078.4918374824</v>
       </c>
       <c r="H2" t="n">
         <v>123078.4918374824</v>
@@ -26340,22 +26340,22 @@
         <v>123094.6446283099</v>
       </c>
       <c r="K2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283099</v>
       </c>
       <c r="L2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283099</v>
       </c>
       <c r="M2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283099</v>
       </c>
       <c r="N2" t="n">
-        <v>123094.6446283098</v>
+        <v>123094.6446283099</v>
       </c>
       <c r="O2" t="n">
         <v>123078.4918374824</v>
       </c>
       <c r="P2" t="n">
-        <v>123078.4918374823</v>
+        <v>123078.4918374824</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137993.7487653025</v>
+        <v>137993.7487653026</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7338595810169</v>
+        <v>101.7338595810097</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606070269</v>
+        <v>29.77516606068002</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22998.75182201691</v>
+        <v>22998.75182201693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>66.87306366112958</v>
       </c>
       <c r="F4" t="n">
-        <v>66.87306366112958</v>
+        <v>66.87306366112966</v>
       </c>
       <c r="G4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909372</v>
       </c>
       <c r="H4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909375</v>
       </c>
       <c r="I4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="L4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="M4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="N4" t="n">
-        <v>67.00913363879312</v>
+        <v>67.00913363879316</v>
       </c>
       <c r="O4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909372</v>
       </c>
       <c r="P4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909372</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>15579.96215784089</v>
       </c>
       <c r="F5" t="n">
-        <v>15579.96215784089</v>
+        <v>15579.9621578409</v>
       </c>
       <c r="G5" t="n">
         <v>15588.76195449727</v>
@@ -26490,22 +26490,22 @@
         <v>15588.76195449727</v>
       </c>
       <c r="I5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="J5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="K5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="L5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="M5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="N5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="O5" t="n">
         <v>15588.76195449727</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262980.6742383351</v>
+        <v>-278739.8900324157</v>
       </c>
       <c r="C6" t="n">
-        <v>45203.20958221923</v>
+        <v>29443.99378813864</v>
       </c>
       <c r="D6" t="n">
-        <v>45203.20958221923</v>
+        <v>29443.99378813862</v>
       </c>
       <c r="E6" t="n">
-        <v>-30593.60004933598</v>
+        <v>-44283.70074386158</v>
       </c>
       <c r="F6" t="n">
-        <v>107400.1487159665</v>
+        <v>93710.04802144102</v>
       </c>
       <c r="G6" t="n">
-        <v>107321.041825625</v>
+        <v>93632.6915699892</v>
       </c>
       <c r="H6" t="n">
-        <v>107422.775685206</v>
+        <v>93734.42542957023</v>
       </c>
       <c r="I6" t="n">
-        <v>107402.2906000129</v>
+        <v>93714.83772164531</v>
       </c>
       <c r="J6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.612887706</v>
       </c>
       <c r="K6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.612887706</v>
       </c>
       <c r="L6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.612887706</v>
       </c>
       <c r="M6" t="n">
-        <v>84433.3139440567</v>
+        <v>70745.86106568907</v>
       </c>
       <c r="N6" t="n">
-        <v>107432.0657660736</v>
+        <v>93744.612887706</v>
       </c>
       <c r="O6" t="n">
-        <v>107422.7756852061</v>
+        <v>93734.42542957021</v>
       </c>
       <c r="P6" t="n">
-        <v>107422.775685206</v>
+        <v>93734.4254295702</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>457.2843932887732</v>
       </c>
       <c r="F3" t="n">
-        <v>457.2843932887732</v>
+        <v>457.2843932887733</v>
       </c>
       <c r="G3" t="n">
         <v>457.3757704702508</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="F4" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="G4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="H4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="I4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="J4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="K4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="L4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="M4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="P4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.4631747907305</v>
+        <v>137.4631747907306</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09137718147752526</v>
+        <v>0.09137718147752594</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527316</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687526747</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527316</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J5" t="n">
         <v>109.1233211798925</v>
@@ -31293,7 +31293,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
@@ -31384,13 +31384,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
@@ -31399,7 +31399,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H7" t="n">
         <v>5.127625437558785</v>
@@ -31448,16 +31448,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O7" t="n">
         <v>81.51770992143554</v>
@@ -31466,7 +31466,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31758,7 +31758,7 @@
         <v>18.82678911665787</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87218722518766</v>
+        <v>70.87218722518767</v>
       </c>
       <c r="J11" t="n">
         <v>156.0258945724343</v>
@@ -31773,7 +31773,7 @@
         <v>322.635088229668</v>
       </c>
       <c r="N11" t="n">
-        <v>321.7019185989862</v>
+        <v>321.7019185989863</v>
       </c>
       <c r="O11" t="n">
         <v>309.7377922401358</v>
@@ -31791,7 +31791,7 @@
         <v>41.89092708369014</v>
       </c>
       <c r="T11" t="n">
-        <v>8.047286157272779</v>
+        <v>8.047286157272781</v>
       </c>
       <c r="U11" t="n">
         <v>0.1470663375401078</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9835928459418894</v>
+        <v>0.9835928459418897</v>
       </c>
       <c r="H12" t="n">
-        <v>9.499436170017724</v>
+        <v>9.499436170017725</v>
       </c>
       <c r="I12" t="n">
         <v>33.86492912563085</v>
       </c>
       <c r="J12" t="n">
-        <v>92.92795392295722</v>
+        <v>92.92795392295723</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31855,16 +31855,16 @@
         <v>223.6305670857286</v>
       </c>
       <c r="O12" t="n">
-        <v>194.586051802294</v>
+        <v>194.5860518022939</v>
       </c>
       <c r="P12" t="n">
         <v>187.8230935377982</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.5547639837401</v>
+        <v>125.5547639837402</v>
       </c>
       <c r="R12" t="n">
-        <v>61.0690365226026</v>
+        <v>61.06903652260261</v>
       </c>
       <c r="S12" t="n">
         <v>18.26980571299956</v>
@@ -31873,7 +31873,7 @@
         <v>3.964569409739457</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0647100556540717</v>
+        <v>0.06471005565407172</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8246112010125417</v>
+        <v>0.8246112010125418</v>
       </c>
       <c r="H13" t="n">
-        <v>7.331543223547876</v>
+        <v>7.331543223547877</v>
       </c>
       <c r="I13" t="n">
         <v>24.79830775408626</v>
       </c>
       <c r="J13" t="n">
-        <v>58.30001191158669</v>
+        <v>58.3000119115867</v>
       </c>
       <c r="K13" t="n">
         <v>95.80482862672983</v>
@@ -31934,10 +31934,10 @@
         <v>126.1880031513102</v>
       </c>
       <c r="O13" t="n">
-        <v>116.5550450303909</v>
+        <v>116.555045030391</v>
       </c>
       <c r="P13" t="n">
-        <v>99.732976529735</v>
+        <v>99.73297652973501</v>
       </c>
       <c r="Q13" t="n">
         <v>69.04994338660475</v>
@@ -31949,10 +31949,10 @@
         <v>14.37072429400947</v>
       </c>
       <c r="T13" t="n">
-        <v>3.523338767962677</v>
+        <v>3.523338767962678</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04497879278250232</v>
+        <v>0.04497879278250233</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.838329219251348</v>
+        <v>1.838329219251349</v>
       </c>
       <c r="H14" t="n">
-        <v>18.82678911665787</v>
+        <v>18.82678911665788</v>
       </c>
       <c r="I14" t="n">
-        <v>70.87218722518766</v>
+        <v>70.87218722518769</v>
       </c>
       <c r="J14" t="n">
         <v>156.0258945724343</v>
@@ -32007,16 +32007,16 @@
         <v>290.1021382670074</v>
       </c>
       <c r="M14" t="n">
-        <v>322.635088229668</v>
+        <v>322.6350882296682</v>
       </c>
       <c r="N14" t="n">
-        <v>321.7019185989863</v>
+        <v>321.7019185989864</v>
       </c>
       <c r="O14" t="n">
-        <v>309.7377922401358</v>
+        <v>309.7377922401359</v>
       </c>
       <c r="P14" t="n">
-        <v>264.3540396398681</v>
+        <v>264.3540396398682</v>
       </c>
       <c r="Q14" t="n">
         <v>198.5188744754292</v>
@@ -32028,7 +32028,7 @@
         <v>41.89092708369014</v>
       </c>
       <c r="T14" t="n">
-        <v>8.047286157272779</v>
+        <v>8.047286157272783</v>
       </c>
       <c r="U14" t="n">
         <v>0.1470663375401078</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9835928459418894</v>
+        <v>0.9835928459418898</v>
       </c>
       <c r="H15" t="n">
-        <v>9.499436170017724</v>
+        <v>9.499436170017725</v>
       </c>
       <c r="I15" t="n">
-        <v>33.86492912563085</v>
+        <v>33.86492912563086</v>
       </c>
       <c r="J15" t="n">
-        <v>92.92795392295722</v>
+        <v>92.92795392295724</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>213.5647536769879</v>
+        <v>213.564753676988</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4228889244136</v>
+        <v>194.9871814556127</v>
       </c>
       <c r="N15" t="n">
-        <v>184.1948596169275</v>
+        <v>223.6305670857287</v>
       </c>
       <c r="O15" t="n">
         <v>234.0217592710951</v>
@@ -32098,10 +32098,10 @@
         <v>187.8230935377982</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.5547639837401</v>
+        <v>125.5547639837402</v>
       </c>
       <c r="R15" t="n">
-        <v>61.0690365226026</v>
+        <v>61.06903652260262</v>
       </c>
       <c r="S15" t="n">
         <v>18.26980571299956</v>
@@ -32110,7 +32110,7 @@
         <v>3.964569409739457</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0647100556540717</v>
+        <v>0.06471005565407172</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8246112010125417</v>
+        <v>0.8246112010125419</v>
       </c>
       <c r="H16" t="n">
-        <v>7.331543223547876</v>
+        <v>7.331543223547878</v>
       </c>
       <c r="I16" t="n">
-        <v>24.79830775408626</v>
+        <v>24.79830775408627</v>
       </c>
       <c r="J16" t="n">
-        <v>58.30001191158669</v>
+        <v>58.30001191158671</v>
       </c>
       <c r="K16" t="n">
-        <v>95.80482862672983</v>
+        <v>95.80482862672984</v>
       </c>
       <c r="L16" t="n">
         <v>122.5971961941737</v>
@@ -32168,28 +32168,28 @@
         <v>129.2615539914478</v>
       </c>
       <c r="N16" t="n">
-        <v>126.1880031513102</v>
+        <v>126.1880031513103</v>
       </c>
       <c r="O16" t="n">
-        <v>116.5550450303909</v>
+        <v>116.555045030391</v>
       </c>
       <c r="P16" t="n">
-        <v>99.732976529735</v>
+        <v>99.73297652973503</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.04994338660475</v>
+        <v>69.04994338660477</v>
       </c>
       <c r="R16" t="n">
         <v>37.07751818370937</v>
       </c>
       <c r="S16" t="n">
-        <v>14.37072429400947</v>
+        <v>14.37072429400948</v>
       </c>
       <c r="T16" t="n">
-        <v>3.523338767962677</v>
+        <v>3.523338767962678</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04497879278250232</v>
+        <v>0.04497879278250234</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,28 +32226,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H17" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I17" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J17" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K17" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L17" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M17" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984209</v>
       </c>
       <c r="N17" t="n">
-        <v>321.8138885677389</v>
+        <v>321.813888567739</v>
       </c>
       <c r="O17" t="n">
         <v>309.7996858163597</v>
@@ -32265,7 +32265,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T17" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U17" t="n">
         <v>0.1470957251763619</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H18" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I18" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J18" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32323,10 +32323,10 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M18" t="n">
-        <v>195.1915961429192</v>
+        <v>234.5348588931664</v>
       </c>
       <c r="N18" t="n">
-        <v>223.7425370544813</v>
+        <v>184.3992743042345</v>
       </c>
       <c r="O18" t="n">
         <v>234.0685228367896</v>
@@ -32338,7 +32338,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R18" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S18" t="n">
         <v>18.27345649001425</v>
@@ -32347,7 +32347,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H19" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I19" t="n">
         <v>24.8032630936982</v>
@@ -32396,7 +32396,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K19" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L19" t="n">
         <v>122.6216942667292</v>
@@ -32408,13 +32408,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O19" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P19" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R19" t="n">
         <v>37.08492722534196</v>
@@ -32423,7 +32423,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T19" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U19" t="n">
         <v>0.04498778070199193</v>
@@ -32463,28 +32463,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H20" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I20" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J20" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K20" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L20" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M20" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984209</v>
       </c>
       <c r="N20" t="n">
-        <v>321.8138885677389</v>
+        <v>321.8138885677391</v>
       </c>
       <c r="O20" t="n">
         <v>309.7996858163597</v>
@@ -32502,7 +32502,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T20" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U20" t="n">
         <v>0.1470957251763619</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H21" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I21" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J21" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32560,13 +32560,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M21" t="n">
-        <v>234.5348588931663</v>
+        <v>234.5348588931665</v>
       </c>
       <c r="N21" t="n">
-        <v>223.7425370544813</v>
+        <v>184.3992743042347</v>
       </c>
       <c r="O21" t="n">
-        <v>194.7252600865425</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P21" t="n">
         <v>187.8606254220168</v>
@@ -32575,7 +32575,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R21" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S21" t="n">
         <v>18.27345649001425</v>
@@ -32584,7 +32584,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H22" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I22" t="n">
         <v>24.8032630936982</v>
@@ -32633,7 +32633,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K22" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L22" t="n">
         <v>122.6216942667292</v>
@@ -32645,13 +32645,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O22" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P22" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R22" t="n">
         <v>37.08492722534196</v>
@@ -32660,7 +32660,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T22" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U22" t="n">
         <v>0.04498778070199193</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H23" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I23" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J23" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K23" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L23" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M23" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N23" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O23" t="n">
         <v>309.7996858163597</v>
@@ -32739,7 +32739,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T23" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U23" t="n">
         <v>0.1470957251763619</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H24" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I24" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J24" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K24" t="n">
         <v>158.8604126547474</v>
@@ -32800,10 +32800,10 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N24" t="n">
-        <v>163.7116864909627</v>
+        <v>223.8545070232341</v>
       </c>
       <c r="O24" t="n">
-        <v>234.0685228367896</v>
+        <v>173.9257023045182</v>
       </c>
       <c r="P24" t="n">
         <v>187.8606254220168</v>
@@ -32812,7 +32812,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R24" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S24" t="n">
         <v>18.27345649001425</v>
@@ -32821,7 +32821,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H25" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I25" t="n">
         <v>24.8032630936982</v>
@@ -32870,7 +32870,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K25" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L25" t="n">
         <v>122.6216942667292</v>
@@ -32882,13 +32882,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O25" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P25" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R25" t="n">
         <v>37.08492722534196</v>
@@ -32897,7 +32897,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T25" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U25" t="n">
         <v>0.04498778070199193</v>
@@ -32937,28 +32937,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H26" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I26" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J26" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K26" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L26" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N26" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O26" t="n">
         <v>309.7996858163597</v>
@@ -32976,7 +32976,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T26" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U26" t="n">
         <v>0.1470957251763619</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H27" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I27" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K27" t="n">
         <v>158.8604126547474</v>
       </c>
       <c r="L27" t="n">
-        <v>153.4646088746132</v>
+        <v>213.6074294068846</v>
       </c>
       <c r="M27" t="n">
         <v>234.6468288619191</v>
       </c>
       <c r="N27" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O27" t="n">
         <v>234.0685228367896</v>
@@ -33049,7 +33049,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R27" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S27" t="n">
         <v>18.27345649001425</v>
@@ -33058,7 +33058,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H28" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I28" t="n">
         <v>24.8032630936982</v>
@@ -33107,7 +33107,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K28" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L28" t="n">
         <v>122.6216942667292</v>
@@ -33119,13 +33119,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O28" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P28" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R28" t="n">
         <v>37.08492722534196</v>
@@ -33134,7 +33134,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T28" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U28" t="n">
         <v>0.04498778070199193</v>
@@ -33174,28 +33174,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H29" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I29" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J29" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K29" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L29" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M29" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N29" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O29" t="n">
         <v>309.7996858163597</v>
@@ -33213,7 +33213,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T29" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U29" t="n">
         <v>0.1470957251763619</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H30" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I30" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J30" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K30" t="n">
         <v>158.8604126547474</v>
@@ -33271,10 +33271,10 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M30" t="n">
-        <v>174.5040083296477</v>
+        <v>234.6468288619191</v>
       </c>
       <c r="N30" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O30" t="n">
         <v>234.0685228367896</v>
@@ -33286,7 +33286,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R30" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S30" t="n">
         <v>18.27345649001425</v>
@@ -33295,7 +33295,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,7 +33335,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H31" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I31" t="n">
         <v>24.8032630936982</v>
@@ -33344,7 +33344,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K31" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L31" t="n">
         <v>122.6216942667292</v>
@@ -33356,13 +33356,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O31" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P31" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R31" t="n">
         <v>37.08492722534196</v>
@@ -33371,7 +33371,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T31" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U31" t="n">
         <v>0.04498778070199193</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H32" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I32" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J32" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K32" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L32" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M32" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N32" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O32" t="n">
         <v>309.7996858163597</v>
@@ -33450,7 +33450,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T32" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U32" t="n">
         <v>0.1470957251763619</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H33" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I33" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J33" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K33" t="n">
         <v>158.8604126547474</v>
@@ -33511,7 +33511,7 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N33" t="n">
-        <v>163.7116864909627</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O33" t="n">
         <v>234.0685228367896</v>
@@ -33523,7 +33523,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R33" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S33" t="n">
         <v>18.27345649001425</v>
@@ -33532,7 +33532,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H34" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I34" t="n">
         <v>24.8032630936982</v>
@@ -33581,7 +33581,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K34" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L34" t="n">
         <v>122.6216942667292</v>
@@ -33593,13 +33593,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O34" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P34" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R34" t="n">
         <v>37.08492722534196</v>
@@ -33608,7 +33608,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T34" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U34" t="n">
         <v>0.04498778070199193</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H35" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I35" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J35" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K35" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L35" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N35" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O35" t="n">
         <v>309.7996858163597</v>
@@ -33687,7 +33687,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T35" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U35" t="n">
         <v>0.1470957251763619</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H36" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I36" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J36" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K36" t="n">
         <v>158.8604126547474</v>
@@ -33745,10 +33745,10 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5040083296477</v>
+        <v>234.6468288619191</v>
       </c>
       <c r="N36" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O36" t="n">
         <v>234.0685228367896</v>
@@ -33760,7 +33760,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R36" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S36" t="n">
         <v>18.27345649001425</v>
@@ -33769,7 +33769,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H37" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I37" t="n">
         <v>24.8032630936982</v>
@@ -33818,7 +33818,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K37" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L37" t="n">
         <v>122.6216942667292</v>
@@ -33830,13 +33830,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O37" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P37" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R37" t="n">
         <v>37.08492722534196</v>
@@ -33845,7 +33845,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T37" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U37" t="n">
         <v>0.04498778070199193</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H38" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I38" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J38" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K38" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L38" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M38" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N38" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O38" t="n">
         <v>309.7996858163597</v>
@@ -33924,7 +33924,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T38" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U38" t="n">
         <v>0.1470957251763619</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H39" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I39" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J39" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K39" t="n">
         <v>158.8604126547474</v>
@@ -33985,19 +33985,19 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N39" t="n">
-        <v>163.7116864909626</v>
+        <v>217.5979044986493</v>
       </c>
       <c r="O39" t="n">
         <v>234.0685228367896</v>
       </c>
       <c r="P39" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R39" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S39" t="n">
         <v>18.27345649001425</v>
@@ -34006,7 +34006,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H40" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I40" t="n">
         <v>24.8032630936982</v>
@@ -34055,7 +34055,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K40" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L40" t="n">
         <v>122.6216942667292</v>
@@ -34067,13 +34067,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O40" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P40" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R40" t="n">
         <v>37.08492722534196</v>
@@ -34082,7 +34082,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T40" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U40" t="n">
         <v>0.04498778070199193</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H41" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I41" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J41" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K41" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L41" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984209</v>
       </c>
       <c r="N41" t="n">
-        <v>321.8138885677389</v>
+        <v>321.813888567739</v>
       </c>
       <c r="O41" t="n">
         <v>309.7996858163597</v>
@@ -34161,7 +34161,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T41" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U41" t="n">
         <v>0.1470957251763619</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H42" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I42" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J42" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K42" t="n">
         <v>158.8604126547474</v>
@@ -34219,13 +34219,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M42" t="n">
-        <v>234.5348588931663</v>
+        <v>234.5348588931664</v>
       </c>
       <c r="N42" t="n">
-        <v>223.7425370544813</v>
+        <v>163.3803006238461</v>
       </c>
       <c r="O42" t="n">
-        <v>173.7062864061541</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P42" t="n">
         <v>187.8606254220168</v>
@@ -34234,7 +34234,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R42" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S42" t="n">
         <v>18.27345649001425</v>
@@ -34243,7 +34243,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H43" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I43" t="n">
         <v>24.8032630936982</v>
@@ -34292,7 +34292,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K43" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L43" t="n">
         <v>122.6216942667292</v>
@@ -34304,13 +34304,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O43" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P43" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R43" t="n">
         <v>37.08492722534196</v>
@@ -34319,7 +34319,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T43" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U43" t="n">
         <v>0.04498778070199193</v>
@@ -34359,28 +34359,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H44" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I44" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J44" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K44" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L44" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984209</v>
       </c>
       <c r="N44" t="n">
-        <v>321.8138885677389</v>
+        <v>321.813888567739</v>
       </c>
       <c r="O44" t="n">
         <v>309.7996858163597</v>
@@ -34398,7 +34398,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T44" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U44" t="n">
         <v>0.1470957251763619</v>
@@ -34438,40 +34438,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H45" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I45" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J45" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L45" t="n">
         <v>213.6074294068846</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5348588931663</v>
+        <v>234.5348588931664</v>
       </c>
       <c r="N45" t="n">
-        <v>223.7425370544813</v>
+        <v>163.3803006238461</v>
       </c>
       <c r="O45" t="n">
         <v>234.0685228367896</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5173626717697</v>
+        <v>187.8606254220168</v>
       </c>
       <c r="Q45" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R45" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S45" t="n">
         <v>18.27345649001425</v>
@@ -34480,7 +34480,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I46" t="n">
         <v>24.8032630936982</v>
@@ -34529,7 +34529,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K46" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L46" t="n">
         <v>122.6216942667292</v>
@@ -34541,13 +34541,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O46" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P46" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R46" t="n">
         <v>37.08492722534196</v>
@@ -34556,7 +34556,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T46" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U46" t="n">
         <v>0.04498778070199193</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.7525193783633</v>
+        <v>13.75251937836333</v>
       </c>
       <c r="L11" t="n">
         <v>54.33572329702014</v>
       </c>
       <c r="M11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="N11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="O11" t="n">
         <v>79.6395808184491</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>75.01037389711374</v>
+        <v>75.01037389711377</v>
       </c>
       <c r="M12" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="N12" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="O12" t="n">
-        <v>51.98980735784951</v>
+        <v>51.98980735784945</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346796</v>
+        <v>53.84868612346798</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.7525193783633</v>
+        <v>13.75251937836336</v>
       </c>
       <c r="L14" t="n">
-        <v>54.33572329702014</v>
+        <v>54.33572329702019</v>
       </c>
       <c r="M14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="N14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="O14" t="n">
-        <v>79.6395808184491</v>
+        <v>79.63958081844916</v>
       </c>
       <c r="P14" t="n">
-        <v>33.12104388459858</v>
+        <v>33.12104388459863</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>75.01037389711374</v>
+        <v>75.01037389711379</v>
       </c>
       <c r="M15" t="n">
-        <v>92.28885500239531</v>
+        <v>52.85314753359436</v>
       </c>
       <c r="N15" t="n">
-        <v>52.85314753359419</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="O15" t="n">
-        <v>91.42551482665064</v>
+        <v>91.4255148266507</v>
       </c>
       <c r="P15" t="n">
-        <v>53.84868612346796</v>
+        <v>53.84868612346798</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L17" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M17" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N17" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="O17" t="n">
         <v>79.70147439467294</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M18" t="n">
-        <v>53.05756222090091</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N18" t="n">
-        <v>92.40082497114798</v>
+        <v>53.0575622209012</v>
       </c>
       <c r="O18" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P18" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L20" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="N20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="O20" t="n">
         <v>79.70147439467294</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M21" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="N21" t="n">
-        <v>92.40082497114798</v>
+        <v>53.05756222090137</v>
       </c>
       <c r="O21" t="n">
-        <v>52.12901564209805</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P21" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L23" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O23" t="n">
         <v>79.70147439467294</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L24" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M24" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N24" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O24" t="n">
-        <v>91.47227839234512</v>
+        <v>31.32945786007378</v>
       </c>
       <c r="P24" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L26" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M26" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N26" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O26" t="n">
         <v>79.70147439467294</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L27" t="n">
-        <v>14.91022909473901</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N27" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="O27" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P27" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L29" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O29" t="n">
         <v>79.70147439467294</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L30" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M30" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N30" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="O30" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P30" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L32" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O32" t="n">
         <v>79.70147439467294</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L33" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M33" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N33" t="n">
-        <v>32.36997440762937</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="O33" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P33" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L35" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O35" t="n">
         <v>79.70147439467294</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L36" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M36" t="n">
-        <v>32.36997440762937</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N36" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="O36" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P36" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L38" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O38" t="n">
         <v>79.70147439467294</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L39" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M39" t="n">
-        <v>92.51279493990074</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N39" t="n">
-        <v>32.36997440762929</v>
+        <v>86.25619241531602</v>
       </c>
       <c r="O39" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P39" t="n">
-        <v>53.88621800768655</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L41" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="O41" t="n">
         <v>79.70147439467294</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M42" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N42" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051276</v>
       </c>
       <c r="O42" t="n">
-        <v>31.11004196170966</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P42" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L44" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="O44" t="n">
         <v>79.70147439467294</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L45" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M45" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N45" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051276</v>
       </c>
       <c r="O45" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P45" t="n">
-        <v>14.54295525743947</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222098.6454585082</v>
+        <v>330270.8898433731</v>
       </c>
     </row>
     <row r="7">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>57.50120808708957</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.7868153990203</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="U11" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>81.28802348610976</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>66.86101338382853</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>81.28802348610978</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>14.42701010228133</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="U12" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,52 +1618,52 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23.7868153990203</v>
+      </c>
+      <c r="R14" t="n">
+        <v>57.50120808708952</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>92.28885500239542</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>92.28885500239542</v>
-      </c>
-      <c r="H14" t="n">
-        <v>92.28885500239542</v>
-      </c>
-      <c r="I14" t="n">
-        <v>81.28802348610989</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.28802348610988</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="D15" t="n">
-        <v>92.28885500239542</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>92.28885500239542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.61046744136134</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>88.96641104714396</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="T17" t="n">
-        <v>81.38664663458722</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>57.6395004118737</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.29810397960041</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.89110334874523</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>89.18920732834587</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>81.38664663458707</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="D20" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>92.40082497114815</v>
+        <v>81.38664663458717</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R21" t="n">
-        <v>81.38664663458728</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>66.98472560296374</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>81.27022026107808</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="U23" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>57.52307403836434</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="F24" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.40192103162359</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>67.08334875144105</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>81.48526978306467</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="U26" t="n">
-        <v>81.27022026107797</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>81.27022026107808</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>81.48526978306458</v>
+        <v>81.48526978306467</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="Y27" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>81.27022026107797</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="U29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>57.52307403836451</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="V30" t="n">
-        <v>81.48526978306461</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="W30" t="n">
-        <v>92.51279493990083</v>
+        <v>81.48526978306469</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="H32" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>81.27022026107797</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>81.27022026107808</v>
       </c>
     </row>
     <row r="33">
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3152,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>81.48526978306461</v>
+        <v>74.99787941395232</v>
       </c>
       <c r="U33" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="U35" t="n">
-        <v>81.27022026107797</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>81.27022026107808</v>
       </c>
       <c r="X35" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>89.39980044557589</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="U36" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="X36" t="n">
-        <v>81.48526978306458</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="E38" t="n">
-        <v>81.27022026107797</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>81.27022026107811</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>67.08334875144102</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>74.99787941395232</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3626,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S39" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.38664663458722</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.38664663458734</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>81.38664663458731</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.65068379064651</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="W42" t="n">
-        <v>15.73596284394065</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="X42" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>81.38664663458731</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.38664663458722</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.136602506075574</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>81.38664663458731</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.65068379064651</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.40192103162359</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.59826427738967</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="W45" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.825239718162</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="C11" t="n">
-        <v>193.825239718162</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="D11" t="n">
-        <v>100.6041740591768</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="E11" t="n">
-        <v>100.6041740591768</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="F11" t="n">
-        <v>100.6041740591768</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="G11" t="n">
-        <v>100.6041740591768</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="H11" t="n">
-        <v>7.383108400191625</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="I11" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="J11" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="K11" t="n">
-        <v>20.9981025847712</v>
+        <v>20.99810258477144</v>
       </c>
       <c r="L11" t="n">
-        <v>74.79046864882113</v>
+        <v>74.79046864882143</v>
       </c>
       <c r="M11" t="n">
-        <v>166.1564351011925</v>
+        <v>166.1564351011929</v>
       </c>
       <c r="N11" t="n">
-        <v>257.5224015535639</v>
+        <v>257.5224015535644</v>
       </c>
       <c r="O11" t="n">
-        <v>336.3655865638286</v>
+        <v>336.365586563829</v>
       </c>
       <c r="P11" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.1554200095812</v>
+        <v>345.128333747945</v>
       </c>
       <c r="R11" t="n">
-        <v>369.1554200095812</v>
+        <v>251.9072680889597</v>
       </c>
       <c r="S11" t="n">
-        <v>369.1554200095812</v>
+        <v>251.9072680889597</v>
       </c>
       <c r="T11" t="n">
-        <v>369.1554200095812</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="U11" t="n">
-        <v>275.9343543505961</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="V11" t="n">
-        <v>193.825239718162</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="W11" t="n">
-        <v>193.825239718162</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="X11" t="n">
-        <v>193.825239718162</v>
+        <v>158.6862024299745</v>
       </c>
       <c r="Y11" t="n">
-        <v>193.825239718162</v>
+        <v>158.6862024299745</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.49222303262576</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="C12" t="n">
-        <v>89.49222303262576</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="D12" t="n">
-        <v>89.49222303262576</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="E12" t="n">
-        <v>89.49222303262576</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="F12" t="n">
-        <v>89.49222303262576</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="G12" t="n">
-        <v>89.49222303262576</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="H12" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="I12" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="J12" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="K12" t="n">
-        <v>7.383108400191625</v>
+        <v>28.16047167062944</v>
       </c>
       <c r="L12" t="n">
-        <v>81.64337855833426</v>
+        <v>102.4207418287721</v>
       </c>
       <c r="M12" t="n">
-        <v>173.0093450107056</v>
+        <v>193.7867082811436</v>
       </c>
       <c r="N12" t="n">
-        <v>264.375311463077</v>
+        <v>285.152674733515</v>
       </c>
       <c r="O12" t="n">
-        <v>315.8452207473479</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="P12" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="Q12" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325298</v>
       </c>
       <c r="R12" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325298</v>
       </c>
       <c r="S12" t="n">
-        <v>275.9343543505961</v>
+        <v>261.3616168735446</v>
       </c>
       <c r="T12" t="n">
-        <v>275.9343543505961</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="U12" t="n">
-        <v>182.7132886916109</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="V12" t="n">
-        <v>89.49222303262576</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="W12" t="n">
-        <v>89.49222303262576</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="X12" t="n">
-        <v>89.49222303262576</v>
+        <v>168.1405512145593</v>
       </c>
       <c r="Y12" t="n">
-        <v>89.49222303262576</v>
+        <v>168.1405512145593</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="C13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="D13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="E13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="F13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="G13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="H13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="I13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="J13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="K13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="L13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="M13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="N13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="O13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="P13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="R13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="S13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="T13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="U13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="V13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="W13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="X13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191634</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.1554200095817</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="C14" t="n">
-        <v>369.1554200095817</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="D14" t="n">
-        <v>369.1554200095817</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="E14" t="n">
-        <v>369.1554200095817</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="F14" t="n">
-        <v>275.9343543505964</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="G14" t="n">
-        <v>182.7132886916112</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="H14" t="n">
-        <v>89.49222303262587</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="I14" t="n">
         <v>7.383108400191634</v>
@@ -5281,10 +5281,10 @@
         <v>7.383108400191634</v>
       </c>
       <c r="K14" t="n">
-        <v>20.99810258477144</v>
+        <v>20.99810258477135</v>
       </c>
       <c r="L14" t="n">
-        <v>74.79046864882143</v>
+        <v>74.7904686488214</v>
       </c>
       <c r="M14" t="n">
         <v>166.1564351011929</v>
@@ -5299,31 +5299,31 @@
         <v>369.1554200095817</v>
       </c>
       <c r="Q14" t="n">
-        <v>369.1554200095817</v>
+        <v>345.128333747945</v>
       </c>
       <c r="R14" t="n">
-        <v>369.1554200095817</v>
+        <v>287.0463053771475</v>
       </c>
       <c r="S14" t="n">
-        <v>369.1554200095817</v>
+        <v>287.0463053771475</v>
       </c>
       <c r="T14" t="n">
-        <v>369.1554200095817</v>
+        <v>193.8252397181622</v>
       </c>
       <c r="U14" t="n">
-        <v>369.1554200095817</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="V14" t="n">
-        <v>369.1554200095817</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="W14" t="n">
-        <v>369.1554200095817</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="X14" t="n">
-        <v>369.1554200095817</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="Y14" t="n">
-        <v>369.1554200095817</v>
+        <v>100.6041740591769</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.8252397181622</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="C15" t="n">
-        <v>193.8252397181622</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="D15" t="n">
-        <v>100.6041740591769</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="E15" t="n">
-        <v>100.6041740591769</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="F15" t="n">
-        <v>100.6041740591769</v>
+        <v>7.383108400191634</v>
       </c>
       <c r="G15" t="n">
         <v>7.383108400191634</v>
@@ -5360,19 +5360,19 @@
         <v>7.383108400191634</v>
       </c>
       <c r="K15" t="n">
-        <v>7.383108400191634</v>
+        <v>28.16047167062944</v>
       </c>
       <c r="L15" t="n">
-        <v>81.64337855833429</v>
+        <v>102.4207418287721</v>
       </c>
       <c r="M15" t="n">
-        <v>133.9679946165927</v>
+        <v>193.7867082811436</v>
       </c>
       <c r="N15" t="n">
-        <v>225.3339610689642</v>
+        <v>285.152674733515</v>
       </c>
       <c r="O15" t="n">
-        <v>315.8452207473484</v>
+        <v>369.1554200095817</v>
       </c>
       <c r="P15" t="n">
         <v>369.1554200095817</v>
@@ -5381,28 +5381,28 @@
         <v>369.1554200095817</v>
       </c>
       <c r="R15" t="n">
-        <v>369.1554200095817</v>
+        <v>283.690301381944</v>
       </c>
       <c r="S15" t="n">
-        <v>369.1554200095817</v>
+        <v>283.690301381944</v>
       </c>
       <c r="T15" t="n">
-        <v>275.9343543505964</v>
+        <v>190.4692357229587</v>
       </c>
       <c r="U15" t="n">
-        <v>275.9343543505964</v>
+        <v>190.4692357229587</v>
       </c>
       <c r="V15" t="n">
-        <v>275.9343543505964</v>
+        <v>190.4692357229587</v>
       </c>
       <c r="W15" t="n">
-        <v>275.9343543505964</v>
+        <v>190.4692357229587</v>
       </c>
       <c r="X15" t="n">
-        <v>275.9343543505964</v>
+        <v>100.6041740591769</v>
       </c>
       <c r="Y15" t="n">
-        <v>275.9343543505964</v>
+        <v>100.6041740591769</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C17" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D17" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E17" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F17" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G17" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H17" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I17" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J17" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K17" t="n">
-        <v>21.05332062426911</v>
+        <v>21.05332062426925</v>
       </c>
       <c r="L17" t="n">
-        <v>74.90307685724517</v>
+        <v>74.90307685724538</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3798935786817</v>
+        <v>166.3798935786821</v>
       </c>
       <c r="N17" t="n">
-        <v>257.8567103001184</v>
+        <v>257.8567103001189</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7611699508447</v>
+        <v>336.7611699508452</v>
       </c>
       <c r="P17" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.6032998845924</v>
+        <v>345.6162834980135</v>
       </c>
       <c r="R17" t="n">
-        <v>369.6032998845924</v>
+        <v>252.28211686049</v>
       </c>
       <c r="S17" t="n">
-        <v>369.6032998845924</v>
+        <v>158.9479502229665</v>
       </c>
       <c r="T17" t="n">
-        <v>287.3945659102619</v>
+        <v>158.9479502229665</v>
       </c>
       <c r="U17" t="n">
-        <v>194.0603992727385</v>
+        <v>158.9479502229665</v>
       </c>
       <c r="V17" t="n">
-        <v>194.0603992727385</v>
+        <v>158.9479502229665</v>
       </c>
       <c r="W17" t="n">
-        <v>194.0603992727385</v>
+        <v>65.61378358544307</v>
       </c>
       <c r="X17" t="n">
-        <v>194.0603992727385</v>
+        <v>65.61378358544307</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F18" t="n">
-        <v>228.2938369987438</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9596703612205</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I18" t="n">
-        <v>41.62550372369714</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J18" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K18" t="n">
-        <v>7.392065997691848</v>
+        <v>28.2008499412764</v>
       </c>
       <c r="L18" t="n">
-        <v>81.69458512843218</v>
+        <v>102.5033690720168</v>
       </c>
       <c r="M18" t="n">
-        <v>173.1714018498688</v>
+        <v>193.9801857934535</v>
       </c>
       <c r="N18" t="n">
-        <v>225.698388448561</v>
+        <v>225.6983884485615</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2559440569827</v>
+        <v>316.2559440569832</v>
       </c>
       <c r="P18" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="Q18" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="R18" t="n">
-        <v>284.1505076852089</v>
+        <v>284.1505076852094</v>
       </c>
       <c r="S18" t="n">
-        <v>284.1505076852089</v>
+        <v>190.8163410476859</v>
       </c>
       <c r="T18" t="n">
-        <v>284.1505076852089</v>
+        <v>97.48217441016244</v>
       </c>
       <c r="U18" t="n">
-        <v>284.1505076852089</v>
+        <v>97.48217441016244</v>
       </c>
       <c r="V18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="W18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="X18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y18" t="n">
-        <v>284.1505076852089</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="L19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="M19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="N19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="O19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="P19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="R19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="S19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="T19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="U19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="V19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="W19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="X19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.9349666095456</v>
+        <v>194.0603992727388</v>
       </c>
       <c r="C20" t="n">
         <v>100.7262326352153</v>
       </c>
       <c r="D20" t="n">
-        <v>7.392065997691852</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="E20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05332062426913</v>
+        <v>21.05332062426917</v>
       </c>
       <c r="L20" t="n">
-        <v>74.9030768572452</v>
+        <v>74.90307685724522</v>
       </c>
       <c r="M20" t="n">
-        <v>166.3798935786819</v>
+        <v>166.379893578682</v>
       </c>
       <c r="N20" t="n">
-        <v>257.8567103001186</v>
+        <v>257.8567103001187</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7611699508448</v>
+        <v>336.761169950845</v>
       </c>
       <c r="P20" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="R20" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="S20" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="T20" t="n">
-        <v>276.269133247069</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="U20" t="n">
-        <v>276.269133247069</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="V20" t="n">
-        <v>276.269133247069</v>
+        <v>369.6032998845927</v>
       </c>
       <c r="W20" t="n">
-        <v>182.9349666095456</v>
+        <v>287.3945659102623</v>
       </c>
       <c r="X20" t="n">
-        <v>182.9349666095456</v>
+        <v>194.0603992727388</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.9349666095456</v>
+        <v>194.0603992727388</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.0603992727387</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C21" t="n">
-        <v>194.0603992727387</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D21" t="n">
-        <v>194.0603992727387</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E21" t="n">
-        <v>194.0603992727387</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F21" t="n">
+        <v>7.392065997691859</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.392065997691859</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.392065997691859</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.392065997691859</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.392065997691859</v>
+      </c>
+      <c r="K21" t="n">
+        <v>28.2008499412764</v>
+      </c>
+      <c r="L21" t="n">
+        <v>102.5033690720168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>187.5689275547344</v>
+      </c>
+      <c r="N21" t="n">
+        <v>279.0457442761711</v>
+      </c>
+      <c r="O21" t="n">
+        <v>369.6032998845929</v>
+      </c>
+      <c r="P21" t="n">
+        <v>369.6032998845929</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>355.055904903155</v>
+      </c>
+      <c r="R21" t="n">
+        <v>355.055904903155</v>
+      </c>
+      <c r="S21" t="n">
+        <v>261.7217382656315</v>
+      </c>
+      <c r="T21" t="n">
+        <v>168.387571628108</v>
+      </c>
+      <c r="U21" t="n">
+        <v>168.387571628108</v>
+      </c>
+      <c r="V21" t="n">
+        <v>168.387571628108</v>
+      </c>
+      <c r="W21" t="n">
         <v>100.7262326352153</v>
       </c>
-      <c r="G21" t="n">
-        <v>7.392065997691852</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7.392065997691852</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.392065997691852</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.392065997691852</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.392065997691852</v>
-      </c>
-      <c r="L21" t="n">
-        <v>81.69458512843219</v>
-      </c>
-      <c r="M21" t="n">
-        <v>173.1714018498689</v>
-      </c>
-      <c r="N21" t="n">
-        <v>225.6983884485612</v>
-      </c>
-      <c r="O21" t="n">
-        <v>316.2559440569829</v>
-      </c>
-      <c r="P21" t="n">
-        <v>369.6032998845926</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>369.6032998845926</v>
-      </c>
-      <c r="R21" t="n">
-        <v>287.394565910262</v>
-      </c>
-      <c r="S21" t="n">
-        <v>287.394565910262</v>
-      </c>
-      <c r="T21" t="n">
-        <v>287.394565910262</v>
-      </c>
-      <c r="U21" t="n">
-        <v>287.394565910262</v>
-      </c>
-      <c r="V21" t="n">
-        <v>287.394565910262</v>
-      </c>
-      <c r="W21" t="n">
-        <v>287.394565910262</v>
-      </c>
       <c r="X21" t="n">
-        <v>287.394565910262</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y21" t="n">
-        <v>287.394565910262</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="L22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="M22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="N22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="O22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="P22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="R22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="S22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="T22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="U22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="V22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="W22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="X22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="C23" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="D23" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="E23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K23" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176938</v>
       </c>
       <c r="L23" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474544</v>
       </c>
       <c r="M23" t="n">
-        <v>166.4997014452472</v>
+        <v>166.4997014452473</v>
       </c>
       <c r="N23" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357492</v>
       </c>
       <c r="O23" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864754</v>
       </c>
       <c r="P23" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="Q23" t="n">
-        <v>345.8469416336434</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="R23" t="n">
-        <v>252.399674017582</v>
+        <v>276.3866904041616</v>
       </c>
       <c r="S23" t="n">
-        <v>252.399674017582</v>
+        <v>182.9394227881001</v>
       </c>
       <c r="T23" t="n">
-        <v>252.399674017582</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="U23" t="n">
-        <v>158.9524064015205</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="V23" t="n">
-        <v>65.50513878545908</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="W23" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="X23" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203862</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="C24" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="D24" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="E24" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="F24" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="G24" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H24" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I24" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J24" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K24" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877662</v>
       </c>
       <c r="L24" t="n">
-        <v>102.5123266695169</v>
+        <v>102.512326669517</v>
       </c>
       <c r="M24" t="n">
-        <v>194.0999936600188</v>
+        <v>194.0999936600189</v>
       </c>
       <c r="N24" t="n">
-        <v>285.6876606505206</v>
+        <v>226.1462683235721</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319938</v>
       </c>
       <c r="P24" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="Q24" t="n">
-        <v>355.5037847781654</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="R24" t="n">
-        <v>287.7428264433764</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="S24" t="n">
-        <v>287.7428264433764</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="T24" t="n">
-        <v>287.7428264433764</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="U24" t="n">
-        <v>287.7428264433764</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="V24" t="n">
-        <v>287.7428264433764</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="W24" t="n">
-        <v>287.7428264433764</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="X24" t="n">
-        <v>287.7428264433764</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="Y24" t="n">
-        <v>287.7428264433764</v>
+        <v>287.7428264433766</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="M25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="N25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="O25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="P25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="R25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="S25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="T25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="U25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="V25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="W25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C26" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D26" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E26" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F26" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G26" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H26" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I26" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J26" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K26" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176938</v>
       </c>
       <c r="L26" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474544</v>
       </c>
       <c r="M26" t="n">
-        <v>166.4997014452472</v>
+        <v>166.4997014452473</v>
       </c>
       <c r="N26" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357492</v>
       </c>
       <c r="O26" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864754</v>
       </c>
       <c r="P26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="Q26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="R26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="S26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="T26" t="n">
-        <v>276.3866904041614</v>
+        <v>276.3866904041616</v>
       </c>
       <c r="U26" t="n">
-        <v>194.295558827315</v>
+        <v>182.9394227881001</v>
       </c>
       <c r="V26" t="n">
-        <v>194.295558827315</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="W26" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X26" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y26" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C27" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D27" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K27" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877662</v>
       </c>
       <c r="L27" t="n">
-        <v>102.5123266695169</v>
+        <v>102.512326669517</v>
       </c>
       <c r="M27" t="n">
-        <v>194.0999936600188</v>
+        <v>134.5586013330702</v>
       </c>
       <c r="N27" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235721</v>
       </c>
       <c r="O27" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319938</v>
       </c>
       <c r="P27" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="Q27" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="R27" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="S27" t="n">
-        <v>276.6039121435418</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="T27" t="n">
-        <v>276.6039121435418</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="U27" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="V27" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="W27" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="X27" t="n">
-        <v>194.295558827315</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y27" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="M28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="N28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="O28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="P28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="R28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="S28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="T28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="U28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="V28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="W28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I29" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J29" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K29" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176938</v>
       </c>
       <c r="L29" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474544</v>
       </c>
       <c r="M29" t="n">
-        <v>166.4997014452472</v>
+        <v>166.4997014452473</v>
       </c>
       <c r="N29" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357492</v>
       </c>
       <c r="O29" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864754</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="Q29" t="n">
-        <v>369.8339580202229</v>
+        <v>345.8469416336438</v>
       </c>
       <c r="R29" t="n">
-        <v>276.3866904041614</v>
+        <v>252.3996740175823</v>
       </c>
       <c r="S29" t="n">
-        <v>276.3866904041614</v>
+        <v>252.3996740175823</v>
       </c>
       <c r="T29" t="n">
-        <v>194.295558827315</v>
+        <v>158.9524064015208</v>
       </c>
       <c r="U29" t="n">
-        <v>100.8482912112535</v>
+        <v>65.50513878545925</v>
       </c>
       <c r="V29" t="n">
-        <v>100.8482912112535</v>
+        <v>65.50513878545925</v>
       </c>
       <c r="W29" t="n">
-        <v>100.8482912112535</v>
+        <v>65.50513878545925</v>
       </c>
       <c r="X29" t="n">
-        <v>100.8482912112535</v>
+        <v>65.50513878545925</v>
       </c>
       <c r="Y29" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="C30" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="E30" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="F30" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="G30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K30" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877662</v>
       </c>
       <c r="L30" t="n">
-        <v>102.5123266695169</v>
+        <v>102.512326669517</v>
       </c>
       <c r="M30" t="n">
-        <v>194.0999936600188</v>
+        <v>194.0999936600189</v>
       </c>
       <c r="N30" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235721</v>
       </c>
       <c r="O30" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319938</v>
       </c>
       <c r="P30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="R30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="S30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="T30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="U30" t="n">
-        <v>370.0511797596033</v>
+        <v>276.6039121435421</v>
       </c>
       <c r="V30" t="n">
-        <v>287.7428264433764</v>
+        <v>183.1566445274806</v>
       </c>
       <c r="W30" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="X30" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="M31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="N31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="O31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="P31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="R31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="S31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="T31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="U31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="V31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="W31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="C32" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="D32" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="E32" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="F32" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="G32" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K32" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176938</v>
       </c>
       <c r="L32" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474544</v>
       </c>
       <c r="M32" t="n">
-        <v>166.4997014452472</v>
+        <v>166.4997014452473</v>
       </c>
       <c r="N32" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357492</v>
       </c>
       <c r="O32" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864754</v>
       </c>
       <c r="P32" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="R32" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="S32" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="T32" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="U32" t="n">
-        <v>276.3866904041614</v>
+        <v>276.3866904041616</v>
       </c>
       <c r="V32" t="n">
-        <v>276.3866904041614</v>
+        <v>276.3866904041616</v>
       </c>
       <c r="W32" t="n">
-        <v>276.3866904041614</v>
+        <v>276.3866904041616</v>
       </c>
       <c r="X32" t="n">
-        <v>194.295558827315</v>
+        <v>182.9394227881001</v>
       </c>
       <c r="Y32" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112536</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="C33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="D33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="E33" t="n">
-        <v>100.8482912112535</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="F33" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G33" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K33" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877662</v>
       </c>
       <c r="L33" t="n">
-        <v>102.5123266695169</v>
+        <v>102.512326669517</v>
       </c>
       <c r="M33" t="n">
-        <v>194.0999936600188</v>
+        <v>194.0999936600189</v>
       </c>
       <c r="N33" t="n">
-        <v>226.1462683235719</v>
+        <v>285.6876606505207</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7038239319936</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="P33" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="Q33" t="n">
-        <v>370.0511797596033</v>
+        <v>355.5037847781656</v>
       </c>
       <c r="R33" t="n">
-        <v>370.0511797596033</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="S33" t="n">
-        <v>370.0511797596033</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="T33" t="n">
-        <v>287.7428264433764</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="U33" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="V33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="W33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="X33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="M34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="N34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="O34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="P34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="R34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="S34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="T34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="U34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="V34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="W34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K35" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176938</v>
       </c>
       <c r="L35" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474544</v>
       </c>
       <c r="M35" t="n">
-        <v>166.4997014452472</v>
+        <v>166.4997014452473</v>
       </c>
       <c r="N35" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357492</v>
       </c>
       <c r="O35" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864754</v>
       </c>
       <c r="P35" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="Q35" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="R35" t="n">
-        <v>276.3866904041614</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="S35" t="n">
-        <v>182.9394227881</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="T35" t="n">
-        <v>182.9394227881</v>
+        <v>276.3866904041616</v>
       </c>
       <c r="U35" t="n">
-        <v>100.8482912112535</v>
+        <v>182.9394227881001</v>
       </c>
       <c r="V35" t="n">
-        <v>100.8482912112535</v>
+        <v>89.49215517203862</v>
       </c>
       <c r="W35" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K36" t="n">
-        <v>28.20980753877661</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L36" t="n">
-        <v>102.5123266695169</v>
+        <v>42.97093434256837</v>
       </c>
       <c r="M36" t="n">
-        <v>194.0999936600188</v>
+        <v>134.5586013330702</v>
       </c>
       <c r="N36" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235721</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319938</v>
       </c>
       <c r="P36" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="Q36" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="R36" t="n">
-        <v>370.0511797596033</v>
+        <v>284.59838756022</v>
       </c>
       <c r="S36" t="n">
-        <v>370.0511797596033</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="T36" t="n">
-        <v>370.0511797596033</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="U36" t="n">
-        <v>276.6039121435418</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="V36" t="n">
-        <v>183.1566445274804</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="W36" t="n">
-        <v>89.70937691141893</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="M37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="N37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="O37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="P37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="R37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="S37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="T37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="U37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="V37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="W37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>276.3866904041614</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="C38" t="n">
-        <v>182.9394227881</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="D38" t="n">
-        <v>89.49215517203851</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E38" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F38" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G38" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H38" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I38" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J38" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K38" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176938</v>
       </c>
       <c r="L38" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474544</v>
       </c>
       <c r="M38" t="n">
-        <v>166.4997014452472</v>
+        <v>166.4997014452473</v>
       </c>
       <c r="N38" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357492</v>
       </c>
       <c r="O38" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864754</v>
       </c>
       <c r="P38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="R38" t="n">
-        <v>276.3866904041614</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="S38" t="n">
-        <v>276.3866904041614</v>
+        <v>369.8339580202232</v>
       </c>
       <c r="T38" t="n">
-        <v>276.3866904041614</v>
+        <v>287.7428264433766</v>
       </c>
       <c r="U38" t="n">
-        <v>276.3866904041614</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="V38" t="n">
-        <v>276.3866904041614</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="W38" t="n">
-        <v>276.3866904041614</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="X38" t="n">
-        <v>276.3866904041614</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="Y38" t="n">
-        <v>276.3866904041614</v>
+        <v>100.8482912112536</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>75.16198192998098</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="C39" t="n">
-        <v>7.401023595192067</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="D39" t="n">
-        <v>7.401023595192067</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="E39" t="n">
-        <v>7.401023595192067</v>
+        <v>194.2955588273151</v>
       </c>
       <c r="F39" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112536</v>
       </c>
       <c r="G39" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H39" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I39" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J39" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877662</v>
       </c>
       <c r="L39" t="n">
-        <v>102.5123266695169</v>
+        <v>102.512326669517</v>
       </c>
       <c r="M39" t="n">
-        <v>194.0999936600188</v>
+        <v>134.5586013330702</v>
       </c>
       <c r="N39" t="n">
-        <v>279.4936241511816</v>
+        <v>226.1462683235721</v>
       </c>
       <c r="O39" t="n">
-        <v>370.0511797596033</v>
+        <v>316.7038239319938</v>
       </c>
       <c r="P39" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596035</v>
       </c>
       <c r="Q39" t="n">
-        <v>355.5037847781654</v>
+        <v>355.5037847781656</v>
       </c>
       <c r="R39" t="n">
-        <v>355.5037847781654</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="S39" t="n">
-        <v>262.0565171621039</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="T39" t="n">
-        <v>262.0565171621039</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="U39" t="n">
-        <v>262.0565171621039</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="V39" t="n">
-        <v>262.0565171621039</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="W39" t="n">
-        <v>262.0565171621039</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="X39" t="n">
-        <v>168.6092495460424</v>
+        <v>270.0509925787821</v>
       </c>
       <c r="Y39" t="n">
-        <v>75.16198192998098</v>
+        <v>270.0509925787821</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="C40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="D40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="E40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="F40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="G40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="H40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="I40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="J40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="K40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="L40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="M40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="N40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="O40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="P40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="R40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="S40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="T40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="U40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="V40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="W40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="X40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192071</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>287.3945659102619</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C41" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D41" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E41" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F41" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G41" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H41" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I41" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J41" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K41" t="n">
-        <v>21.05332062426911</v>
+        <v>21.05332062426925</v>
       </c>
       <c r="L41" t="n">
-        <v>74.90307685724517</v>
+        <v>74.90307685724537</v>
       </c>
       <c r="M41" t="n">
-        <v>166.3798935786817</v>
+        <v>166.3798935786821</v>
       </c>
       <c r="N41" t="n">
-        <v>257.8567103001184</v>
+        <v>257.8567103001189</v>
       </c>
       <c r="O41" t="n">
-        <v>336.7611699508447</v>
+        <v>336.7611699508452</v>
       </c>
       <c r="P41" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="Q41" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="R41" t="n">
-        <v>369.6032998845924</v>
+        <v>287.3945659102623</v>
       </c>
       <c r="S41" t="n">
-        <v>369.6032998845924</v>
+        <v>194.0603992727388</v>
       </c>
       <c r="T41" t="n">
-        <v>369.6032998845924</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="U41" t="n">
-        <v>369.6032998845924</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="V41" t="n">
-        <v>369.6032998845924</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="W41" t="n">
-        <v>369.6032998845924</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="X41" t="n">
-        <v>369.6032998845924</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.6032998845924</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>167.0400546459692</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="C42" t="n">
-        <v>73.7058880084459</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="D42" t="n">
-        <v>73.7058880084459</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="E42" t="n">
-        <v>73.7058880084459</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="F42" t="n">
-        <v>73.7058880084459</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="G42" t="n">
-        <v>73.7058880084459</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H42" t="n">
-        <v>73.7058880084459</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I42" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J42" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K42" t="n">
-        <v>28.20084994127639</v>
+        <v>28.2008499412764</v>
       </c>
       <c r="L42" t="n">
-        <v>102.5033690720167</v>
+        <v>102.5033690720168</v>
       </c>
       <c r="M42" t="n">
-        <v>193.9801857934534</v>
+        <v>193.9801857934535</v>
       </c>
       <c r="N42" t="n">
-        <v>225.698388448561</v>
+        <v>285.4570025148903</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2559440569827</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="P42" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="R42" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="S42" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="T42" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="U42" t="n">
-        <v>369.6032998845924</v>
+        <v>276.2691332470694</v>
       </c>
       <c r="V42" t="n">
-        <v>369.6032998845924</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="W42" t="n">
-        <v>353.708387921016</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="X42" t="n">
-        <v>260.3742212834926</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="Y42" t="n">
-        <v>260.3742212834926</v>
+        <v>89.60079997202247</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="L43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="M43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="N43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="O43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="P43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="R43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="S43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="T43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="U43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="V43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="W43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="X43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.7262326352152</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="C44" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="D44" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="E44" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F44" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G44" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H44" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I44" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J44" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K44" t="n">
-        <v>21.05332062426908</v>
+        <v>21.05332062426919</v>
       </c>
       <c r="L44" t="n">
-        <v>74.90307685724508</v>
+        <v>74.90307685724532</v>
       </c>
       <c r="M44" t="n">
-        <v>166.3798935786817</v>
+        <v>166.3798935786821</v>
       </c>
       <c r="N44" t="n">
-        <v>257.8567103001184</v>
+        <v>257.8567103001188</v>
       </c>
       <c r="O44" t="n">
-        <v>336.7611699508447</v>
+        <v>336.7611699508452</v>
       </c>
       <c r="P44" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="Q44" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="R44" t="n">
-        <v>287.3945659102619</v>
+        <v>276.2691332470694</v>
       </c>
       <c r="S44" t="n">
-        <v>287.3945659102619</v>
+        <v>276.2691332470694</v>
       </c>
       <c r="T44" t="n">
-        <v>194.0603992727385</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="U44" t="n">
-        <v>194.0603992727385</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="V44" t="n">
-        <v>100.7262326352152</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="W44" t="n">
-        <v>100.7262326352152</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="X44" t="n">
-        <v>100.7262326352152</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="Y44" t="n">
-        <v>100.7262326352152</v>
+        <v>182.9349666095459</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.2689460662476</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="C45" t="n">
-        <v>176.2689460662476</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="D45" t="n">
-        <v>82.93477942872426</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="E45" t="n">
-        <v>82.93477942872426</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="F45" t="n">
-        <v>73.7058880084459</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="G45" t="n">
-        <v>73.7058880084459</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H45" t="n">
-        <v>73.7058880084459</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K45" t="n">
-        <v>28.20084994127639</v>
+        <v>28.2008499412764</v>
       </c>
       <c r="L45" t="n">
-        <v>102.5033690720167</v>
+        <v>102.5033690720168</v>
       </c>
       <c r="M45" t="n">
-        <v>193.9801857934534</v>
+        <v>187.5689275547344</v>
       </c>
       <c r="N45" t="n">
-        <v>225.698388448561</v>
+        <v>279.0457442761711</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2559440569827</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="P45" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.0559049031544</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="R45" t="n">
-        <v>269.6031127037709</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="S45" t="n">
-        <v>269.6031127037709</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="T45" t="n">
-        <v>269.6031127037709</v>
+        <v>369.6032998845929</v>
       </c>
       <c r="U45" t="n">
-        <v>269.6031127037709</v>
+        <v>276.2691332470694</v>
       </c>
       <c r="V45" t="n">
-        <v>269.6031127037709</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="W45" t="n">
-        <v>176.2689460662476</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="X45" t="n">
-        <v>176.2689460662476</v>
+        <v>89.60079997202247</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.2689460662476</v>
+        <v>89.60079997202247</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="C46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="D46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="E46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="F46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="G46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="H46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="I46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="J46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="K46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="L46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="M46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="N46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="O46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="P46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="R46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="S46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="T46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="U46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="V46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="W46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="X46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691859</v>
       </c>
     </row>
   </sheetData>
@@ -22570,13 +22570,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
         <v>4.586202945486093</v>
@@ -22585,13 +22585,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>134.8218408634681</v>
@@ -22652,7 +22652,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>102.9682853879423</v>
@@ -22731,16 +22731,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
         <v>56.93882853040725</v>
@@ -23044,13 +23044,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L8" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M8" t="n">
         <v>4.586202945486093</v>
@@ -23059,13 +23059,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R8" t="n">
         <v>134.8218408634681</v>
@@ -23126,7 +23126,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R9" t="n">
         <v>102.9682853879423</v>
@@ -23205,16 +23205,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O10" t="n">
         <v>56.93882853040725</v>
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>262.3941866182877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>349.3748376546218</v>
       </c>
       <c r="G11" t="n">
         <v>413.4644082958837</v>
       </c>
       <c r="H11" t="n">
-        <v>228.3591579967139</v>
+        <v>320.6480129991093</v>
       </c>
       <c r="I11" t="n">
-        <v>139.6037023452182</v>
+        <v>47.31484734282279</v>
       </c>
       <c r="J11" t="n">
-        <v>25.02000995425203</v>
+        <v>25.020009954252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.7868153990203</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>100.1085899953345</v>
+        <v>7.819734992939075</v>
       </c>
       <c r="S11" t="n">
         <v>167.1291425025552</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0485634068586</v>
+        <v>122.7597084044631</v>
       </c>
       <c r="U11" t="n">
-        <v>158.9097315679011</v>
+        <v>251.1985865702964</v>
       </c>
       <c r="V11" t="n">
-        <v>246.4642349840252</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23342,10 +23342,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>80.58405218081022</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>65.35622545300552</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,13 +23354,13 @@
         <v>136.3599243172687</v>
       </c>
       <c r="H12" t="n">
-        <v>21.44798458036895</v>
+        <v>102.7360080664787</v>
       </c>
       <c r="I12" t="n">
         <v>65.65745087436915</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370946</v>
+        <v>33.90967274370945</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,22 +23381,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42701010228134</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.61046744136135</v>
+        <v>84.61046744136134</v>
       </c>
       <c r="S12" t="n">
-        <v>61.12451038844296</v>
+        <v>61.12451038844284</v>
       </c>
       <c r="T12" t="n">
-        <v>196.2001592850822</v>
+        <v>103.9113042826867</v>
       </c>
       <c r="U12" t="n">
-        <v>133.5878170229254</v>
+        <v>225.8766720253207</v>
       </c>
       <c r="V12" t="n">
-        <v>140.51173214703</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23442,25 +23442,25 @@
         <v>68.6954095278094</v>
       </c>
       <c r="K13" t="n">
-        <v>33.20842954380555</v>
+        <v>33.20842954380554</v>
       </c>
       <c r="L13" t="n">
-        <v>12.28748008706455</v>
+        <v>12.28748008706454</v>
       </c>
       <c r="M13" t="n">
-        <v>9.664229956157271</v>
+        <v>9.664229956157243</v>
       </c>
       <c r="N13" t="n">
-        <v>1.497541313922952</v>
+        <v>1.497541313922937</v>
       </c>
       <c r="O13" t="n">
-        <v>21.90149342145183</v>
+        <v>21.90149342145182</v>
       </c>
       <c r="P13" t="n">
-        <v>37.9950275194126</v>
+        <v>37.99502751941259</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.45505824284109</v>
+        <v>82.45505824284108</v>
       </c>
       <c r="R13" t="n">
         <v>140.2158731934601</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>290.4449866610852</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>314.587190739316</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>321.1755532934883</v>
+        <v>413.4644082958837</v>
       </c>
       <c r="H14" t="n">
-        <v>228.3591579967138</v>
+        <v>320.6480129991093</v>
       </c>
       <c r="I14" t="n">
-        <v>58.31567885910832</v>
+        <v>139.6037023452182</v>
       </c>
       <c r="J14" t="n">
         <v>25.020009954252</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.7868153990203</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>100.1085899953345</v>
+        <v>42.60738190824497</v>
       </c>
       <c r="S14" t="n">
         <v>167.1291425025552</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0485634068586</v>
+        <v>122.7597084044631</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1985865702964</v>
+        <v>158.909731567901</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.24516016375746</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>80.41964398592032</v>
       </c>
       <c r="D15" t="n">
-        <v>55.15621056224333</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>44.07106931487331</v>
+        <v>136.3599243172687</v>
       </c>
       <c r="H15" t="n">
         <v>102.7360080664787</v>
@@ -23621,7 +23621,7 @@
         <v>14.42701010228133</v>
       </c>
       <c r="R15" t="n">
-        <v>84.61046744136134</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>153.4133653908383</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>116.8065741563335</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>314.4752207705633</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>321.0632159792824</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H17" t="n">
         <v>320.6442509224869</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>100.0855147315114</v>
+        <v>7.684689760363199</v>
       </c>
       <c r="S17" t="n">
-        <v>167.1207716180409</v>
+        <v>74.71994664689272</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6603087175501</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U17" t="n">
-        <v>158.797732211512</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>256.8401437462648</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>328.5984382441799</v>
       </c>
     </row>
     <row r="18">
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>89.77110841378347</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>43.95890279897557</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H18" t="n">
-        <v>10.33328486369278</v>
+        <v>102.7341098348409</v>
       </c>
       <c r="I18" t="n">
         <v>65.65068379064651</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,22 +23855,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>153.4097146138236</v>
+        <v>61.00888964267533</v>
       </c>
       <c r="T18" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910115</v>
       </c>
       <c r="U18" t="n">
         <v>225.8766590945875</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>143.6113798210794</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23916,25 +23916,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K19" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L19" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M19" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N19" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O19" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P19" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R19" t="n">
         <v>140.2084641518275</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>283.8862451364205</v>
+        <v>272.8720667998593</v>
       </c>
       <c r="D20" t="n">
-        <v>262.2822166495348</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>289.5295451011136</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R20" t="n">
         <v>100.0855147315114</v>
@@ -24022,7 +24022,7 @@
         <v>167.1207716180409</v>
       </c>
       <c r="T20" t="n">
-        <v>122.6461303809891</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U20" t="n">
         <v>251.1985571826601</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>256.8401437462649</v>
+        <v>267.8543220828258</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>277.3302757073208</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.13235867871919</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>52.66838742223572</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.95890279897552</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H21" t="n">
         <v>102.7341098348409</v>
@@ -24071,7 +24071,7 @@
         <v>65.65068379064651</v>
       </c>
       <c r="J21" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,16 +24092,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.40192103162359</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.211617642802395</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S21" t="n">
-        <v>153.4097146138236</v>
+        <v>61.00888964267533</v>
       </c>
       <c r="T21" t="n">
-        <v>196.1993670621597</v>
+        <v>103.7985420910115</v>
       </c>
       <c r="U21" t="n">
         <v>225.8766590945875</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>184.7102575579559</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>113.3721602323293</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24153,25 +24153,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K22" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L22" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M22" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N22" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O22" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P22" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R22" t="n">
         <v>140.2084641518275</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>300.6601498111837</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R23" t="n">
-        <v>7.572719791610609</v>
+        <v>7.572719791610538</v>
       </c>
       <c r="S23" t="n">
-        <v>167.1207716180409</v>
+        <v>74.60797667814006</v>
       </c>
       <c r="T23" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122364</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6857622427593</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V23" t="n">
-        <v>235.2394635302341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>291.7178946790486</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.02038870996651</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>65.13228551550012</v>
+        <v>65.13228551550006</v>
       </c>
       <c r="F24" t="n">
-        <v>52.55641745348305</v>
+        <v>52.55641745348299</v>
       </c>
       <c r="G24" t="n">
-        <v>136.3597277701237</v>
+        <v>43.84693283022278</v>
       </c>
       <c r="H24" t="n">
         <v>102.7341098348409</v>
@@ -24308,7 +24308,7 @@
         <v>65.65068379064651</v>
       </c>
       <c r="J24" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R24" t="n">
-        <v>17.51491552594862</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S24" t="n">
         <v>153.4097146138236</v>
@@ -24344,7 +24344,7 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>151.3153173663606</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24390,25 +24390,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K25" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L25" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M25" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N25" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O25" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P25" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R25" t="n">
         <v>140.2084641518275</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,7 +24460,7 @@
         <v>413.4640409504305</v>
       </c>
       <c r="H26" t="n">
-        <v>228.1314559825861</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I26" t="n">
         <v>139.5895402596346</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R26" t="n">
         <v>100.0855147315114</v>
@@ -24496,16 +24496,16 @@
         <v>167.1207716180409</v>
       </c>
       <c r="T26" t="n">
-        <v>122.5341604122365</v>
+        <v>122.5341604122364</v>
       </c>
       <c r="U26" t="n">
-        <v>169.9283369215822</v>
+        <v>158.6857622427592</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>235.239463530234</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>267.9707484563349</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>65.13228551550012</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>65.65068379064651</v>
       </c>
       <c r="J27" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R27" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S27" t="n">
-        <v>60.89691967392272</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T27" t="n">
         <v>196.1993670621597</v>
@@ -24581,16 +24581,16 @@
         <v>144.3913893115229</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095244</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210187</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>113.2601902635766</v>
       </c>
       <c r="Y27" t="n">
-        <v>113.1699008374035</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24627,25 +24627,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K28" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L28" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M28" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N28" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O28" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P28" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R28" t="n">
         <v>140.2084641518275</v>
@@ -24700,7 +24700,7 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I29" t="n">
-        <v>47.07674531973382</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J29" t="n">
         <v>24.9888319680955</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.572719791610609</v>
+        <v>7.572719791610538</v>
       </c>
       <c r="S29" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T29" t="n">
-        <v>133.7767350910593</v>
+        <v>122.5341604122364</v>
       </c>
       <c r="U29" t="n">
-        <v>158.6857622427593</v>
+        <v>158.6857622427592</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>328.7148646176891</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>54.93227062473792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.84693283022284</v>
+        <v>43.84693283022278</v>
       </c>
       <c r="H30" t="n">
         <v>102.7341098348409</v>
@@ -24782,7 +24782,7 @@
         <v>65.65068379064651</v>
       </c>
       <c r="J30" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R30" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S30" t="n">
         <v>153.4097146138236</v>
@@ -24815,13 +24815,13 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546866</v>
       </c>
       <c r="V30" t="n">
-        <v>151.3153173663607</v>
+        <v>140.2877922095244</v>
       </c>
       <c r="W30" t="n">
-        <v>159.1821882210188</v>
+        <v>170.2097133778549</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24864,25 +24864,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K31" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L31" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M31" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N31" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O31" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P31" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R31" t="n">
         <v>140.2084641518275</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>262.1702466807822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105296</v>
       </c>
       <c r="H32" t="n">
-        <v>228.1314559825861</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I32" t="n">
         <v>139.5895402596346</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R32" t="n">
         <v>100.0855147315114</v>
@@ -24973,7 +24973,7 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U32" t="n">
-        <v>158.6857622427593</v>
+        <v>158.6857622427592</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>288.4608804173911</v>
+        <v>277.2183057385681</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>304.9677183949755</v>
       </c>
     </row>
     <row r="33">
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550006</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348299</v>
       </c>
       <c r="G33" t="n">
         <v>136.3597277701237</v>
       </c>
       <c r="H33" t="n">
-        <v>10.22131489494005</v>
+        <v>102.7341098348409</v>
       </c>
       <c r="I33" t="n">
         <v>65.65068379064651</v>
       </c>
       <c r="J33" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.40192103162359</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.59826427738967</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T33" t="n">
-        <v>114.7140972790951</v>
+        <v>121.2014876482074</v>
       </c>
       <c r="U33" t="n">
-        <v>133.3638641546867</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V33" t="n">
-        <v>140.2877922095244</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25101,25 +25101,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K34" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M34" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O34" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P34" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R34" t="n">
         <v>140.2084641518275</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R35" t="n">
-        <v>7.572719791610609</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S35" t="n">
-        <v>74.60797667814012</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T35" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122364</v>
       </c>
       <c r="U35" t="n">
-        <v>169.9283369215822</v>
+        <v>158.6857622427592</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>235.239463530234</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>267.9707484563349</v>
       </c>
       <c r="X35" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25256,7 +25256,7 @@
         <v>65.65068379064651</v>
       </c>
       <c r="J36" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,28 +25277,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R36" t="n">
-        <v>84.59826427738967</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>153.4097146138236</v>
+        <v>64.00991416824766</v>
       </c>
       <c r="T36" t="n">
-        <v>196.1993670621597</v>
+        <v>103.6865721222588</v>
       </c>
       <c r="U36" t="n">
-        <v>133.3638641546867</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V36" t="n">
-        <v>140.2877922095244</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>159.1821882210188</v>
+        <v>159.1821882210187</v>
       </c>
       <c r="X36" t="n">
-        <v>124.2877154204129</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25338,25 +25338,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K37" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L37" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M37" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N37" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O37" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P37" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R37" t="n">
         <v>140.2084641518275</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>272.7600968311067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>262.1702466807822</v>
+        <v>262.170246680782</v>
       </c>
       <c r="E38" t="n">
-        <v>300.6601498111838</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R38" t="n">
-        <v>7.572719791610609</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S38" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T38" t="n">
-        <v>215.0469553521373</v>
+        <v>133.7767350910592</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427592</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>256.7281737775121</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>105.6251502368747</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>82.64720104144862</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348299</v>
       </c>
       <c r="G39" t="n">
-        <v>136.3597277701237</v>
+        <v>43.84693283022278</v>
       </c>
       <c r="H39" t="n">
         <v>102.7341098348409</v>
@@ -25493,7 +25493,7 @@
         <v>65.65068379064651</v>
       </c>
       <c r="J39" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>84.59826427738967</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.89691967392272</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T39" t="n">
         <v>196.1993670621597</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>113.2601902635766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>113.1699008374035</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25575,25 +25575,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K40" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L40" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M40" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N40" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O40" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P40" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R40" t="n">
         <v>140.2084641518275</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.3471950288933</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>272.8720667998595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>262.2822166495349</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>289.5295451011137</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R41" t="n">
-        <v>100.0855147315114</v>
+        <v>18.69886809692409</v>
       </c>
       <c r="S41" t="n">
-        <v>167.1207716180409</v>
+        <v>74.71994664689272</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809891</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1985571826601</v>
+        <v>158.7977322115119</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>74.13235867871924</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>80.30767401716764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3597277701237</v>
+        <v>54.97308113553636</v>
       </c>
       <c r="H42" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J42" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R42" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S42" t="n">
         <v>153.4097146138236</v>
@@ -25763,16 +25763,16 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8766590945875</v>
+        <v>133.4758341234393</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>140.3997621782771</v>
       </c>
       <c r="W42" t="n">
-        <v>235.959020316979</v>
+        <v>159.2941581897714</v>
       </c>
       <c r="X42" t="n">
-        <v>113.3721602323294</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25812,25 +25812,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K43" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L43" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M43" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N43" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O43" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P43" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R43" t="n">
         <v>140.2084641518275</v>
@@ -25867,13 +25867,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>283.8862451364203</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>289.5295451011136</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>413.4640409504305</v>
       </c>
       <c r="H44" t="n">
-        <v>228.2434259513388</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I44" t="n">
         <v>139.5895402596346</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271361</v>
       </c>
       <c r="R44" t="n">
-        <v>18.69886809692422</v>
+        <v>7.684689760363199</v>
       </c>
       <c r="S44" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T44" t="n">
-        <v>122.6461303809892</v>
+        <v>122.6461303809891</v>
       </c>
       <c r="U44" t="n">
         <v>251.1985571826601</v>
       </c>
       <c r="V44" t="n">
-        <v>235.3514334989868</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04424059349066</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>135.9326098873083</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.3597277701237</v>
+        <v>54.97308113553636</v>
       </c>
       <c r="H45" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J45" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,10 +25988,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.40192103162356</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.59826427738966</v>
       </c>
       <c r="S45" t="n">
         <v>153.4097146138236</v>
@@ -26000,13 +26000,13 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8766590945875</v>
+        <v>133.4758341234393</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>140.3997621782771</v>
       </c>
       <c r="W45" t="n">
-        <v>159.2941581897715</v>
+        <v>159.2941581897714</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26049,25 +26049,25 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K46" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529269</v>
       </c>
       <c r="L46" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450905</v>
       </c>
       <c r="M46" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530727</v>
       </c>
       <c r="N46" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794873</v>
       </c>
       <c r="O46" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608111</v>
       </c>
       <c r="P46" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593098</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843796</v>
       </c>
       <c r="R46" t="n">
         <v>140.2084641518275</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355469.0647082429</v>
+        <v>355469.064708243</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355560.0875305051</v>
+        <v>355560.0875305054</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355560.0875305051</v>
+        <v>355560.0875305053</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484512</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355606.7511484512</v>
+        <v>355606.7511484511</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>355606.7511484511</v>
+        <v>355606.7511484512</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355560.0875305051</v>
+        <v>355560.0875305053</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355560.0875305051</v>
+        <v>355560.0875305053</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85802.91214547657</v>
+        <v>85802.91214547656</v>
       </c>
       <c r="C2" t="n">
         <v>85802.91214547657</v>
       </c>
       <c r="D2" t="n">
-        <v>85802.91214547656</v>
+        <v>85802.91214547657</v>
       </c>
       <c r="E2" t="n">
-        <v>123046.9839374685</v>
+        <v>123046.9839374686</v>
       </c>
       <c r="F2" t="n">
         <v>123046.9839374685</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308183.8838205544</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7338595810097</v>
+        <v>101.7338595810461</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606068002</v>
+        <v>29.77516606067624</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22998.75182201693</v>
+        <v>22998.75182201695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>66.87306366112958</v>
+        <v>66.87306366112966</v>
       </c>
       <c r="F4" t="n">
         <v>66.87306366112966</v>
       </c>
       <c r="G4" t="n">
-        <v>66.95419777909372</v>
+        <v>66.95419777909379</v>
       </c>
       <c r="H4" t="n">
-        <v>66.95419777909375</v>
+        <v>66.95419777909379</v>
       </c>
       <c r="I4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387932</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.00913363879322</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387932</v>
       </c>
       <c r="L4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387932</v>
       </c>
       <c r="M4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387932</v>
       </c>
       <c r="N4" t="n">
-        <v>67.00913363879316</v>
+        <v>67.00913363879322</v>
       </c>
       <c r="O4" t="n">
-        <v>66.95419777909372</v>
+        <v>66.95419777909379</v>
       </c>
       <c r="P4" t="n">
-        <v>66.95419777909372</v>
+        <v>66.95419777909379</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15579.96215784089</v>
+        <v>15579.9621578409</v>
       </c>
       <c r="F5" t="n">
         <v>15579.9621578409</v>
       </c>
       <c r="G5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449728</v>
       </c>
       <c r="H5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449728</v>
       </c>
       <c r="I5" t="n">
         <v>15595.56972859744</v>
@@ -26508,10 +26508,10 @@
         <v>15595.56972859744</v>
       </c>
       <c r="O5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449728</v>
       </c>
       <c r="P5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449728</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278739.8900324157</v>
+        <v>-264556.5958177431</v>
       </c>
       <c r="C6" t="n">
-        <v>29443.99378813864</v>
+        <v>43627.28800281118</v>
       </c>
       <c r="D6" t="n">
-        <v>29443.99378813862</v>
+        <v>43627.28800281118</v>
       </c>
       <c r="E6" t="n">
-        <v>-44283.70074386158</v>
+        <v>-31962.61011878861</v>
       </c>
       <c r="F6" t="n">
-        <v>93710.04802144102</v>
+        <v>106031.138646514</v>
       </c>
       <c r="G6" t="n">
-        <v>93632.6915699892</v>
+        <v>105952.2068000614</v>
       </c>
       <c r="H6" t="n">
-        <v>93734.42542957023</v>
+        <v>106053.9406596425</v>
       </c>
       <c r="I6" t="n">
-        <v>93714.83772164531</v>
+        <v>106033.5453121762</v>
       </c>
       <c r="J6" t="n">
-        <v>93744.612887706</v>
+        <v>106063.3204782369</v>
       </c>
       <c r="K6" t="n">
-        <v>93744.612887706</v>
+        <v>106063.3204782369</v>
       </c>
       <c r="L6" t="n">
-        <v>93744.612887706</v>
+        <v>106063.3204782369</v>
       </c>
       <c r="M6" t="n">
-        <v>70745.86106568907</v>
+        <v>83064.56865621993</v>
       </c>
       <c r="N6" t="n">
-        <v>93744.612887706</v>
+        <v>106063.3204782369</v>
       </c>
       <c r="O6" t="n">
-        <v>93734.42542957021</v>
+        <v>106053.9406596425</v>
       </c>
       <c r="P6" t="n">
-        <v>93734.4254295702</v>
+        <v>106053.9406596424</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>457.2843932887732</v>
+        <v>457.2843932887733</v>
       </c>
       <c r="F3" t="n">
         <v>457.2843932887733</v>
       </c>
       <c r="G3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="H3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="I3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="J3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="K3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="L3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="M3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="N3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="O3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
       <c r="P3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702509</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="F4" t="n">
         <v>92.28885500239542</v>
       </c>
       <c r="G4" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="H4" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="I4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="J4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="K4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="L4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="M4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O4" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="P4" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09137718147752594</v>
+        <v>0.09137718147758278</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1119699687527316</v>
+        <v>0.1119699687527032</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1119699687526747</v>
+        <v>0.1119699687526605</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239532</v>
+        <v>92.28885500239541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1119699687527316</v>
+        <v>0.1119699687527032</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
         <v>109.1233211798925</v>
@@ -31056,7 +31056,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
         <v>225.7600302817866</v>
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
         <v>23.68487325669467</v>
@@ -31147,13 +31147,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
         <v>12.77776283338877</v>
@@ -31162,7 +31162,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
         <v>5.127625437558785</v>
@@ -31211,16 +31211,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
         <v>81.51770992143554</v>
@@ -31229,7 +31229,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
         <v>25.93173355231669</v>
@@ -31521,7 +31521,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I8" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J8" t="n">
         <v>109.1233211798925</v>
@@ -31530,7 +31530,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L8" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M8" t="n">
         <v>225.7600302817866</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H9" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I9" t="n">
         <v>23.68487325669467</v>
@@ -31621,13 +31621,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R9" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S9" t="n">
         <v>12.77776283338877</v>
@@ -31636,7 +31636,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H10" t="n">
         <v>5.127625437558785</v>
@@ -31685,16 +31685,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L10" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M10" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N10" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O10" t="n">
         <v>81.51770992143554</v>
@@ -31703,7 +31703,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R10" t="n">
         <v>25.93173355231669</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.838329219251348</v>
+        <v>1.838329219251349</v>
       </c>
       <c r="H11" t="n">
-        <v>18.82678911665787</v>
+        <v>18.82678911665788</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87218722518767</v>
+        <v>70.87218722518769</v>
       </c>
       <c r="J11" t="n">
         <v>156.0258945724343</v>
@@ -31770,16 +31770,16 @@
         <v>290.1021382670074</v>
       </c>
       <c r="M11" t="n">
-        <v>322.635088229668</v>
+        <v>322.6350882296682</v>
       </c>
       <c r="N11" t="n">
-        <v>321.7019185989863</v>
+        <v>321.7019185989864</v>
       </c>
       <c r="O11" t="n">
-        <v>309.7377922401358</v>
+        <v>309.7377922401359</v>
       </c>
       <c r="P11" t="n">
-        <v>264.3540396398681</v>
+        <v>264.3540396398682</v>
       </c>
       <c r="Q11" t="n">
         <v>198.5188744754292</v>
@@ -31791,7 +31791,7 @@
         <v>41.89092708369014</v>
       </c>
       <c r="T11" t="n">
-        <v>8.047286157272781</v>
+        <v>8.047286157272783</v>
       </c>
       <c r="U11" t="n">
         <v>0.1470663375401078</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9835928459418897</v>
+        <v>0.9835928459418898</v>
       </c>
       <c r="H12" t="n">
         <v>9.499436170017725</v>
       </c>
       <c r="I12" t="n">
-        <v>33.86492912563085</v>
+        <v>33.86492912563086</v>
       </c>
       <c r="J12" t="n">
-        <v>92.92795392295723</v>
+        <v>92.92795392295724</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>158.8286746010639</v>
       </c>
       <c r="L12" t="n">
-        <v>213.5647536769879</v>
+        <v>213.564753676988</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4228889244136</v>
+        <v>234.4228889244137</v>
       </c>
       <c r="N12" t="n">
-        <v>223.6305670857286</v>
+        <v>223.6305670857287</v>
       </c>
       <c r="O12" t="n">
-        <v>194.5860518022939</v>
+        <v>227.4475022990572</v>
       </c>
       <c r="P12" t="n">
-        <v>187.8230935377982</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>125.5547639837402</v>
       </c>
       <c r="R12" t="n">
-        <v>61.06903652260261</v>
+        <v>61.06903652260262</v>
       </c>
       <c r="S12" t="n">
         <v>18.26980571299956</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8246112010125418</v>
+        <v>0.8246112010125419</v>
       </c>
       <c r="H13" t="n">
-        <v>7.331543223547877</v>
+        <v>7.331543223547878</v>
       </c>
       <c r="I13" t="n">
-        <v>24.79830775408626</v>
+        <v>24.79830775408627</v>
       </c>
       <c r="J13" t="n">
-        <v>58.3000119115867</v>
+        <v>58.30001191158671</v>
       </c>
       <c r="K13" t="n">
-        <v>95.80482862672983</v>
+        <v>95.80482862672984</v>
       </c>
       <c r="L13" t="n">
         <v>122.5971961941737</v>
@@ -31931,28 +31931,28 @@
         <v>129.2615539914478</v>
       </c>
       <c r="N13" t="n">
-        <v>126.1880031513102</v>
+        <v>126.1880031513103</v>
       </c>
       <c r="O13" t="n">
         <v>116.555045030391</v>
       </c>
       <c r="P13" t="n">
-        <v>99.73297652973501</v>
+        <v>99.73297652973503</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.04994338660475</v>
+        <v>69.04994338660477</v>
       </c>
       <c r="R13" t="n">
         <v>37.07751818370937</v>
       </c>
       <c r="S13" t="n">
-        <v>14.37072429400947</v>
+        <v>14.37072429400948</v>
       </c>
       <c r="T13" t="n">
         <v>3.523338767962678</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04497879278250233</v>
+        <v>0.04497879278250234</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>92.92795392295724</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>158.8286746010639</v>
       </c>
       <c r="L15" t="n">
         <v>213.564753676988</v>
       </c>
       <c r="M15" t="n">
-        <v>194.9871814556127</v>
+        <v>234.4228889244137</v>
       </c>
       <c r="N15" t="n">
         <v>223.6305670857287</v>
       </c>
       <c r="O15" t="n">
-        <v>234.0217592710951</v>
+        <v>227.4475022990572</v>
       </c>
       <c r="P15" t="n">
-        <v>187.8230935377982</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>125.5547639837402</v>
@@ -32229,7 +32229,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H17" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I17" t="n">
         <v>70.88634931077125</v>
@@ -32244,10 +32244,10 @@
         <v>290.1601081346095</v>
       </c>
       <c r="M17" t="n">
-        <v>322.7470581984209</v>
+        <v>322.747058198421</v>
       </c>
       <c r="N17" t="n">
-        <v>321.813888567739</v>
+        <v>321.8138885677391</v>
       </c>
       <c r="O17" t="n">
         <v>309.7996858163597</v>
@@ -32256,13 +32256,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R17" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S17" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T17" t="n">
         <v>8.04889421199406</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H18" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I18" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J18" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L18" t="n">
         <v>213.6074294068846</v>
       </c>
       <c r="M18" t="n">
-        <v>234.5348588931664</v>
+        <v>234.5348588931665</v>
       </c>
       <c r="N18" t="n">
-        <v>184.3992743042345</v>
+        <v>163.3803006238464</v>
       </c>
       <c r="O18" t="n">
         <v>234.0685228367896</v>
@@ -32335,16 +32335,16 @@
         <v>187.8606254220168</v>
       </c>
       <c r="Q18" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R18" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S18" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T18" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U18" t="n">
         <v>0.06472298638729967</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H19" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I19" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J19" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K19" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L19" t="n">
         <v>122.6216942667292</v>
@@ -32411,10 +32411,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P19" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R19" t="n">
         <v>37.08492722534196</v>
@@ -32466,7 +32466,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H20" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I20" t="n">
         <v>70.88634931077125</v>
@@ -32481,7 +32481,7 @@
         <v>290.1601081346095</v>
       </c>
       <c r="M20" t="n">
-        <v>322.7470581984209</v>
+        <v>322.747058198421</v>
       </c>
       <c r="N20" t="n">
         <v>321.8138885677391</v>
@@ -32493,13 +32493,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R20" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S20" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T20" t="n">
         <v>8.04889421199406</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H21" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I21" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J21" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L21" t="n">
         <v>213.6074294068846</v>
       </c>
       <c r="M21" t="n">
-        <v>234.5348588931665</v>
+        <v>228.0588404702179</v>
       </c>
       <c r="N21" t="n">
-        <v>184.3992743042347</v>
+        <v>223.7425370544815</v>
       </c>
       <c r="O21" t="n">
         <v>234.0685228367896</v>
       </c>
       <c r="P21" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R21" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S21" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T21" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U21" t="n">
         <v>0.06472298638729967</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H22" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I22" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J22" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K22" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L22" t="n">
         <v>122.6216942667292</v>
@@ -32648,10 +32648,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P22" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R22" t="n">
         <v>37.08492722534196</v>
@@ -32703,7 +32703,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H23" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I23" t="n">
         <v>70.88634931077125</v>
@@ -32730,13 +32730,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R23" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S23" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T23" t="n">
         <v>8.04889421199406</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H24" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I24" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J24" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K24" t="n">
         <v>158.8604126547474</v>
@@ -32797,28 +32797,28 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M24" t="n">
-        <v>234.6468288619191</v>
+        <v>234.6468288619192</v>
       </c>
       <c r="N24" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9257023045182</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P24" t="n">
         <v>187.8606254220168</v>
       </c>
       <c r="Q24" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R24" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S24" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T24" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U24" t="n">
         <v>0.06472298638729967</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H25" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I25" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J25" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K25" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L25" t="n">
         <v>122.6216942667292</v>
@@ -32885,10 +32885,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P25" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R25" t="n">
         <v>37.08492722534196</v>
@@ -32940,7 +32940,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H26" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I26" t="n">
         <v>70.88634931077125</v>
@@ -32967,13 +32967,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R26" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S26" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T26" t="n">
         <v>8.04889421199406</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H27" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I27" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K27" t="n">
         <v>158.8604126547474</v>
@@ -33034,10 +33034,10 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M27" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296479</v>
       </c>
       <c r="N27" t="n">
-        <v>163.7116864909628</v>
+        <v>223.8545070232342</v>
       </c>
       <c r="O27" t="n">
         <v>234.0685228367896</v>
@@ -33046,16 +33046,16 @@
         <v>187.8606254220168</v>
       </c>
       <c r="Q27" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R27" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S27" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T27" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U27" t="n">
         <v>0.06472298638729967</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H28" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I28" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J28" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K28" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L28" t="n">
         <v>122.6216942667292</v>
@@ -33122,10 +33122,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P28" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R28" t="n">
         <v>37.08492722534196</v>
@@ -33177,7 +33177,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H29" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I29" t="n">
         <v>70.88634931077125</v>
@@ -33204,13 +33204,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q29" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R29" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S29" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T29" t="n">
         <v>8.04889421199406</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H30" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I30" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J30" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K30" t="n">
         <v>158.8604126547474</v>
@@ -33271,7 +33271,7 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M30" t="n">
-        <v>234.6468288619191</v>
+        <v>234.6468288619192</v>
       </c>
       <c r="N30" t="n">
         <v>163.7116864909628</v>
@@ -33283,16 +33283,16 @@
         <v>187.8606254220168</v>
       </c>
       <c r="Q30" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R30" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S30" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T30" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U30" t="n">
         <v>0.06472298638729967</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H31" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I31" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J31" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K31" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L31" t="n">
         <v>122.6216942667292</v>
@@ -33359,10 +33359,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P31" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R31" t="n">
         <v>37.08492722534196</v>
@@ -33414,7 +33414,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H32" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I32" t="n">
         <v>70.88634931077125</v>
@@ -33441,13 +33441,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q32" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R32" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S32" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T32" t="n">
         <v>8.04889421199406</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H33" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I33" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J33" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K33" t="n">
         <v>158.8604126547474</v>
@@ -33508,28 +33508,28 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M33" t="n">
-        <v>234.6468288619191</v>
+        <v>234.6468288619192</v>
       </c>
       <c r="N33" t="n">
-        <v>163.7116864909628</v>
+        <v>223.8545070232342</v>
       </c>
       <c r="O33" t="n">
-        <v>234.0685228367896</v>
+        <v>227.8119203122048</v>
       </c>
       <c r="P33" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R33" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S33" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T33" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U33" t="n">
         <v>0.06472298638729967</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H34" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I34" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J34" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K34" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L34" t="n">
         <v>122.6216942667292</v>
@@ -33596,10 +33596,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P34" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R34" t="n">
         <v>37.08492722534196</v>
@@ -33651,7 +33651,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H35" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I35" t="n">
         <v>70.88634931077125</v>
@@ -33678,13 +33678,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q35" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R35" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S35" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T35" t="n">
         <v>8.04889421199406</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H36" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I36" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J36" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K36" t="n">
-        <v>158.8604126547474</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>213.6074294068846</v>
+        <v>174.4835825550018</v>
       </c>
       <c r="M36" t="n">
-        <v>234.6468288619191</v>
+        <v>234.6468288619192</v>
       </c>
       <c r="N36" t="n">
-        <v>163.7116864909628</v>
+        <v>223.8545070232342</v>
       </c>
       <c r="O36" t="n">
         <v>234.0685228367896</v>
@@ -33757,16 +33757,16 @@
         <v>187.8606254220168</v>
       </c>
       <c r="Q36" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R36" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S36" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T36" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U36" t="n">
         <v>0.06472298638729967</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H37" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I37" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J37" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K37" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L37" t="n">
         <v>122.6216942667292</v>
@@ -33833,10 +33833,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P37" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R37" t="n">
         <v>37.08492722534196</v>
@@ -33888,7 +33888,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H38" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I38" t="n">
         <v>70.88634931077125</v>
@@ -33915,13 +33915,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q38" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R38" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S38" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T38" t="n">
         <v>8.04889421199406</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H39" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I39" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J39" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K39" t="n">
         <v>158.8604126547474</v>
@@ -33982,28 +33982,28 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M39" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296479</v>
       </c>
       <c r="N39" t="n">
-        <v>217.5979044986493</v>
+        <v>223.8545070232342</v>
       </c>
       <c r="O39" t="n">
         <v>234.0685228367896</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>187.8606254220168</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R39" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S39" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T39" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U39" t="n">
         <v>0.06472298638729967</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H40" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I40" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J40" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K40" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L40" t="n">
         <v>122.6216942667292</v>
@@ -34070,10 +34070,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P40" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R40" t="n">
         <v>37.08492722534196</v>
@@ -34125,7 +34125,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H41" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I41" t="n">
         <v>70.88634931077125</v>
@@ -34140,10 +34140,10 @@
         <v>290.1601081346095</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7470581984209</v>
+        <v>322.747058198421</v>
       </c>
       <c r="N41" t="n">
-        <v>321.813888567739</v>
+        <v>321.8138885677391</v>
       </c>
       <c r="O41" t="n">
         <v>309.7996858163597</v>
@@ -34152,13 +34152,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q41" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R41" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S41" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T41" t="n">
         <v>8.04889421199406</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H42" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I42" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J42" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K42" t="n">
         <v>158.8604126547474</v>
@@ -34219,28 +34219,28 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M42" t="n">
-        <v>234.5348588931664</v>
+        <v>234.5348588931665</v>
       </c>
       <c r="N42" t="n">
-        <v>163.3803006238461</v>
+        <v>223.7425370544815</v>
       </c>
       <c r="O42" t="n">
-        <v>234.0685228367896</v>
+        <v>227.592504413841</v>
       </c>
       <c r="P42" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R42" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S42" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T42" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U42" t="n">
         <v>0.06472298638729967</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H43" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I43" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J43" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K43" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L43" t="n">
         <v>122.6216942667292</v>
@@ -34307,10 +34307,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P43" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R43" t="n">
         <v>37.08492722534196</v>
@@ -34362,7 +34362,7 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H44" t="n">
-        <v>18.83055119328021</v>
+        <v>18.83055119328022</v>
       </c>
       <c r="I44" t="n">
         <v>70.88634931077125</v>
@@ -34377,10 +34377,10 @@
         <v>290.1601081346095</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7470581984209</v>
+        <v>322.747058198421</v>
       </c>
       <c r="N44" t="n">
-        <v>321.813888567739</v>
+        <v>321.8138885677391</v>
       </c>
       <c r="O44" t="n">
         <v>309.7996858163597</v>
@@ -34389,13 +34389,13 @@
         <v>264.4068643752167</v>
       </c>
       <c r="Q44" t="n">
-        <v>198.5585436517358</v>
+        <v>198.5585436517359</v>
       </c>
       <c r="R44" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S44" t="n">
-        <v>41.89929796820439</v>
+        <v>41.8992979682044</v>
       </c>
       <c r="T44" t="n">
         <v>8.04889421199406</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869548</v>
       </c>
       <c r="H45" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655591</v>
       </c>
       <c r="I45" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J45" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792147</v>
       </c>
       <c r="K45" t="n">
         <v>158.8604126547474</v>
@@ -34456,28 +34456,28 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5348588931664</v>
+        <v>228.0588404702179</v>
       </c>
       <c r="N45" t="n">
-        <v>163.3803006238461</v>
+        <v>223.7425370544815</v>
       </c>
       <c r="O45" t="n">
         <v>234.0685228367896</v>
       </c>
       <c r="P45" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>125.5798530543979</v>
+        <v>125.579853054398</v>
       </c>
       <c r="R45" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657429</v>
       </c>
       <c r="S45" t="n">
-        <v>18.27345649001425</v>
+        <v>18.27345649001426</v>
       </c>
       <c r="T45" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661891</v>
       </c>
       <c r="U45" t="n">
         <v>0.06472298638729967</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365178</v>
       </c>
       <c r="H46" t="n">
-        <v>7.333008254424682</v>
+        <v>7.333008254424683</v>
       </c>
       <c r="I46" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J46" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323181</v>
       </c>
       <c r="K46" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524269</v>
       </c>
       <c r="L46" t="n">
         <v>122.6216942667292</v>
@@ -34544,10 +34544,10 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P46" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321663</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100788</v>
       </c>
       <c r="R46" t="n">
         <v>37.08492722534196</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.75251937836333</v>
+        <v>13.75251937836336</v>
       </c>
       <c r="L11" t="n">
-        <v>54.33572329702014</v>
+        <v>54.33572329702019</v>
       </c>
       <c r="M11" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="N11" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="O11" t="n">
-        <v>79.6395808184491</v>
+        <v>79.63958081844916</v>
       </c>
       <c r="P11" t="n">
-        <v>33.12104388459858</v>
+        <v>33.12104388459863</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>20.98723562670486</v>
       </c>
       <c r="L12" t="n">
-        <v>75.01037389711377</v>
+        <v>75.01037389711379</v>
       </c>
       <c r="M12" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="N12" t="n">
-        <v>92.28885500239531</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="O12" t="n">
-        <v>51.98980735784945</v>
+        <v>84.8512578546128</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346798</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20.98723562670486</v>
       </c>
       <c r="L15" t="n">
         <v>75.01037389711379</v>
       </c>
       <c r="M15" t="n">
-        <v>52.85314753359436</v>
+        <v>92.28885500239542</v>
       </c>
       <c r="N15" t="n">
         <v>92.28885500239542</v>
       </c>
       <c r="O15" t="n">
-        <v>91.4255148266507</v>
+        <v>84.8512578546128</v>
       </c>
       <c r="P15" t="n">
-        <v>53.84868612346798</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L17" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M17" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="N17" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O17" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P17" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L18" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M18" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="N18" t="n">
-        <v>53.0575622209012</v>
+        <v>32.03858854051308</v>
       </c>
       <c r="O18" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P18" t="n">
         <v>53.88621800768658</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L20" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M20" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="N20" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O20" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P20" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L21" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M21" t="n">
-        <v>92.40082497114815</v>
+        <v>85.92480654819961</v>
       </c>
       <c r="N21" t="n">
-        <v>53.05756222090137</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O21" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P21" t="n">
-        <v>53.88621800768658</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L23" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M23" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N23" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O23" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P23" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L24" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M24" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N24" t="n">
-        <v>92.51279493990083</v>
+        <v>32.36997440762954</v>
       </c>
       <c r="O24" t="n">
-        <v>31.32945786007378</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P24" t="n">
         <v>53.88621800768658</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L26" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M26" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N26" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O26" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P26" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L27" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M27" t="n">
-        <v>92.51279493990083</v>
+        <v>32.36997440762956</v>
       </c>
       <c r="N27" t="n">
-        <v>32.36997440762946</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O27" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P27" t="n">
         <v>53.88621800768658</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L29" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O29" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P29" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L30" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M30" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N30" t="n">
-        <v>32.36997440762946</v>
+        <v>32.36997440762954</v>
       </c>
       <c r="O30" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P30" t="n">
         <v>53.88621800768658</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L32" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M32" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N32" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O32" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P32" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L33" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M33" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N33" t="n">
-        <v>32.36997440762946</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O33" t="n">
-        <v>91.47227839234515</v>
+        <v>85.21567586776041</v>
       </c>
       <c r="P33" t="n">
-        <v>53.88621800768658</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L35" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M35" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N35" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O35" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P35" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.01897368038843</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>75.05304962701044</v>
+        <v>35.92920277512757</v>
       </c>
       <c r="M36" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N36" t="n">
-        <v>32.36997440762946</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O36" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P36" t="n">
         <v>53.88621800768658</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L38" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O38" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P38" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L39" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M39" t="n">
-        <v>92.51279493990083</v>
+        <v>32.36997440762956</v>
       </c>
       <c r="N39" t="n">
-        <v>86.25619241531602</v>
+        <v>92.51279493990089</v>
       </c>
       <c r="O39" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L41" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M41" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="N41" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O41" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P41" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M42" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="N42" t="n">
-        <v>32.03858854051276</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O42" t="n">
-        <v>91.47227839234515</v>
+        <v>84.99625996939658</v>
       </c>
       <c r="P42" t="n">
-        <v>53.88621800768658</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755284</v>
       </c>
       <c r="L44" t="n">
         <v>54.39369316462228</v>
       </c>
       <c r="M44" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="N44" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O44" t="n">
-        <v>79.70147439467294</v>
+        <v>79.701474394673</v>
       </c>
       <c r="P44" t="n">
-        <v>33.17386861994714</v>
+        <v>33.1738686199472</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>21.01897368038843</v>
       </c>
       <c r="L45" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701047</v>
       </c>
       <c r="M45" t="n">
-        <v>92.4008249711481</v>
+        <v>85.92480654819961</v>
       </c>
       <c r="N45" t="n">
-        <v>32.03858854051276</v>
+        <v>92.40082497114823</v>
       </c>
       <c r="O45" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234517</v>
       </c>
       <c r="P45" t="n">
-        <v>53.88621800768658</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
